--- a/data/nzd0381/nzd0381.xlsx
+++ b/data/nzd0381/nzd0381.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U449"/>
+  <dimension ref="A1:U458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27322,18 +27322,12 @@
         <v>383.2522222222222</v>
       </c>
       <c r="P448" t="inlineStr"/>
-      <c r="Q448" t="n">
-        <v>299.1322222222223</v>
-      </c>
-      <c r="R448" t="n">
-        <v>331.9922222222222</v>
-      </c>
+      <c r="Q448" t="inlineStr"/>
+      <c r="R448" t="inlineStr"/>
       <c r="S448" t="n">
         <v>338.08</v>
       </c>
-      <c r="T448" t="n">
-        <v>312.55</v>
-      </c>
+      <c r="T448" t="inlineStr"/>
       <c r="U448" t="inlineStr">
         <is>
           <t>L9</t>
@@ -27391,12 +27385,8 @@
       <c r="P449" t="n">
         <v>369.2855555555556</v>
       </c>
-      <c r="Q449" t="n">
-        <v>297.4855555555555</v>
-      </c>
-      <c r="R449" t="n">
-        <v>341.3555555555556</v>
-      </c>
+      <c r="Q449" t="inlineStr"/>
+      <c r="R449" t="inlineStr"/>
       <c r="S449" t="n">
         <v>358.59</v>
       </c>
@@ -27404,6 +27394,623 @@
         <v>326.89</v>
       </c>
       <c r="U449" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:34+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>377.91</v>
+      </c>
+      <c r="C450" t="n">
+        <v>374.24</v>
+      </c>
+      <c r="D450" t="n">
+        <v>369.5533333333333</v>
+      </c>
+      <c r="E450" t="n">
+        <v>360.7745454545454</v>
+      </c>
+      <c r="F450" t="n">
+        <v>368.5633333333333</v>
+      </c>
+      <c r="G450" t="n">
+        <v>363.1323076923077</v>
+      </c>
+      <c r="H450" t="n">
+        <v>364.4814285714286</v>
+      </c>
+      <c r="I450" t="n">
+        <v>380.3814285714286</v>
+      </c>
+      <c r="J450" t="n">
+        <v>394.44</v>
+      </c>
+      <c r="K450" t="n">
+        <v>404.88</v>
+      </c>
+      <c r="L450" t="n">
+        <v>403.5622222222222</v>
+      </c>
+      <c r="M450" t="n">
+        <v>407.0645454545455</v>
+      </c>
+      <c r="N450" t="n">
+        <v>392.08</v>
+      </c>
+      <c r="O450" t="n">
+        <v>394.9822222222222</v>
+      </c>
+      <c r="P450" t="n">
+        <v>398.5822222222222</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>391.1922222222223</v>
+      </c>
+      <c r="R450" t="n">
+        <v>395.1422222222222</v>
+      </c>
+      <c r="S450" t="inlineStr"/>
+      <c r="T450" t="n">
+        <v>397.83</v>
+      </c>
+      <c r="U450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>379.905</v>
+      </c>
+      <c r="C451" t="n">
+        <v>374.81</v>
+      </c>
+      <c r="D451" t="n">
+        <v>369.1733333333333</v>
+      </c>
+      <c r="E451" t="n">
+        <v>371.88</v>
+      </c>
+      <c r="F451" t="n">
+        <v>363.5833333333333</v>
+      </c>
+      <c r="G451" t="n">
+        <v>365.8415384615385</v>
+      </c>
+      <c r="H451" t="n">
+        <v>373.0871428571429</v>
+      </c>
+      <c r="I451" t="n">
+        <v>379.4071428571429</v>
+      </c>
+      <c r="J451" t="n">
+        <v>393.51</v>
+      </c>
+      <c r="K451" t="n">
+        <v>405.17</v>
+      </c>
+      <c r="L451" t="n">
+        <v>403.2422222222222</v>
+      </c>
+      <c r="M451" t="n">
+        <v>409.44</v>
+      </c>
+      <c r="N451" t="n">
+        <v>402.44</v>
+      </c>
+      <c r="O451" t="n">
+        <v>396.3922222222222</v>
+      </c>
+      <c r="P451" t="n">
+        <v>397.4122222222222</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>391.2822222222222</v>
+      </c>
+      <c r="R451" t="n">
+        <v>342.1922222222223</v>
+      </c>
+      <c r="S451" t="n">
+        <v>358.56</v>
+      </c>
+      <c r="T451" t="n">
+        <v>363.66</v>
+      </c>
+      <c r="U451" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>378.18</v>
+      </c>
+      <c r="C452" t="n">
+        <v>368.97</v>
+      </c>
+      <c r="D452" t="n">
+        <v>360.85</v>
+      </c>
+      <c r="E452" t="n">
+        <v>355.3490909090909</v>
+      </c>
+      <c r="F452" t="n">
+        <v>358.11</v>
+      </c>
+      <c r="G452" t="n">
+        <v>356.8030769230769</v>
+      </c>
+      <c r="H452" t="n">
+        <v>359.9142857142857</v>
+      </c>
+      <c r="I452" t="n">
+        <v>368.8542857142857</v>
+      </c>
+      <c r="J452" t="n">
+        <v>376.94</v>
+      </c>
+      <c r="K452" t="n">
+        <v>393.0100000000001</v>
+      </c>
+      <c r="L452" t="n">
+        <v>397.34</v>
+      </c>
+      <c r="M452" t="n">
+        <v>401.0490909090909</v>
+      </c>
+      <c r="N452" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="O452" t="n">
+        <v>392.09</v>
+      </c>
+      <c r="P452" t="n">
+        <v>390.15</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>387.94</v>
+      </c>
+      <c r="R452" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="S452" t="n">
+        <v>388.55</v>
+      </c>
+      <c r="T452" t="n">
+        <v>384.12</v>
+      </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>376.86</v>
+      </c>
+      <c r="C453" t="n">
+        <v>372.84</v>
+      </c>
+      <c r="D453" t="n">
+        <v>365.9366666666667</v>
+      </c>
+      <c r="E453" t="n">
+        <v>358.6372727272728</v>
+      </c>
+      <c r="F453" t="n">
+        <v>365.4666666666667</v>
+      </c>
+      <c r="G453" t="n">
+        <v>363.6723076923077</v>
+      </c>
+      <c r="H453" t="n">
+        <v>363.8971428571429</v>
+      </c>
+      <c r="I453" t="n">
+        <v>367.9571428571429</v>
+      </c>
+      <c r="J453" t="n">
+        <v>378.32</v>
+      </c>
+      <c r="K453" t="n">
+        <v>394.64</v>
+      </c>
+      <c r="L453" t="n">
+        <v>390.2944444444445</v>
+      </c>
+      <c r="M453" t="n">
+        <v>403.5572727272727</v>
+      </c>
+      <c r="N453" t="n">
+        <v>398.38</v>
+      </c>
+      <c r="O453" t="n">
+        <v>390.7244444444444</v>
+      </c>
+      <c r="P453" t="n">
+        <v>395.2344444444445</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>407.7344444444445</v>
+      </c>
+      <c r="R453" t="n">
+        <v>377.8344444444445</v>
+      </c>
+      <c r="S453" t="inlineStr"/>
+      <c r="T453" t="n">
+        <v>400.35</v>
+      </c>
+      <c r="U453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>395.685</v>
+      </c>
+      <c r="C454" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="D454" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="E454" t="n">
+        <v>389.0327272727272</v>
+      </c>
+      <c r="F454" t="n">
+        <v>386.17</v>
+      </c>
+      <c r="G454" t="n">
+        <v>371.27</v>
+      </c>
+      <c r="H454" t="n">
+        <v>372.6442857142857</v>
+      </c>
+      <c r="I454" t="n">
+        <v>382.1042857142857</v>
+      </c>
+      <c r="J454" t="n">
+        <v>404.08</v>
+      </c>
+      <c r="K454" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="L454" t="n">
+        <v>414.42</v>
+      </c>
+      <c r="M454" t="n">
+        <v>412.7327272727272</v>
+      </c>
+      <c r="N454" t="n">
+        <v>413.58</v>
+      </c>
+      <c r="O454" t="n">
+        <v>416.66</v>
+      </c>
+      <c r="P454" t="n">
+        <v>407.69</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>389.69</v>
+      </c>
+      <c r="R454" t="n">
+        <v>349.35</v>
+      </c>
+      <c r="S454" t="n">
+        <v>375.32</v>
+      </c>
+      <c r="T454" t="n">
+        <v>383.96</v>
+      </c>
+      <c r="U454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:37+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>377.88</v>
+      </c>
+      <c r="C455" t="n">
+        <v>368.39</v>
+      </c>
+      <c r="D455" t="n">
+        <v>366.9966666666666</v>
+      </c>
+      <c r="E455" t="n">
+        <v>360.6118181818182</v>
+      </c>
+      <c r="F455" t="n">
+        <v>369.1666666666667</v>
+      </c>
+      <c r="G455" t="n">
+        <v>375.1376923076923</v>
+      </c>
+      <c r="H455" t="n">
+        <v>371.2228571428572</v>
+      </c>
+      <c r="I455" t="n">
+        <v>381.0828571428572</v>
+      </c>
+      <c r="J455" t="n">
+        <v>387.47</v>
+      </c>
+      <c r="K455" t="n">
+        <v>384.43</v>
+      </c>
+      <c r="L455" t="n">
+        <v>398.9711111111111</v>
+      </c>
+      <c r="M455" t="n">
+        <v>411.5018181818182</v>
+      </c>
+      <c r="N455" t="n">
+        <v>405.84</v>
+      </c>
+      <c r="O455" t="n">
+        <v>408.1311111111111</v>
+      </c>
+      <c r="P455" t="n">
+        <v>409.7911111111111</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>391.4611111111111</v>
+      </c>
+      <c r="R455" t="n">
+        <v>401.6811111111111</v>
+      </c>
+      <c r="S455" t="n">
+        <v>398.03</v>
+      </c>
+      <c r="T455" t="n">
+        <v>392</v>
+      </c>
+      <c r="U455" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>378.605</v>
+      </c>
+      <c r="C456" t="n">
+        <v>370.23</v>
+      </c>
+      <c r="D456" t="n">
+        <v>369.05</v>
+      </c>
+      <c r="E456" t="n">
+        <v>360.7345454545454</v>
+      </c>
+      <c r="F456" t="n">
+        <v>370.38</v>
+      </c>
+      <c r="G456" t="n">
+        <v>379.2546153846154</v>
+      </c>
+      <c r="H456" t="n">
+        <v>372.8328571428572</v>
+      </c>
+      <c r="I456" t="n">
+        <v>384.3128571428572</v>
+      </c>
+      <c r="J456" t="n">
+        <v>385.03</v>
+      </c>
+      <c r="K456" t="n">
+        <v>383.04</v>
+      </c>
+      <c r="L456" t="n">
+        <v>400.4766666666667</v>
+      </c>
+      <c r="M456" t="n">
+        <v>408.8945454545454</v>
+      </c>
+      <c r="N456" t="n">
+        <v>403.12</v>
+      </c>
+      <c r="O456" t="n">
+        <v>403.2366666666667</v>
+      </c>
+      <c r="P456" t="n">
+        <v>405.9866666666667</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>397.0266666666667</v>
+      </c>
+      <c r="R456" t="n">
+        <v>400.7566666666667</v>
+      </c>
+      <c r="S456" t="n">
+        <v>389.88</v>
+      </c>
+      <c r="T456" t="n">
+        <v>384.82</v>
+      </c>
+      <c r="U456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:46+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>388.125</v>
+      </c>
+      <c r="C457" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="D457" t="n">
+        <v>376.5</v>
+      </c>
+      <c r="E457" t="n">
+        <v>377.3881818181818</v>
+      </c>
+      <c r="F457" t="n">
+        <v>374.98</v>
+      </c>
+      <c r="G457" t="n">
+        <v>369.0146153846154</v>
+      </c>
+      <c r="H457" t="n">
+        <v>376.1285714285714</v>
+      </c>
+      <c r="I457" t="n">
+        <v>380.4485714285714</v>
+      </c>
+      <c r="J457" t="n">
+        <v>394.22</v>
+      </c>
+      <c r="K457" t="n">
+        <v>401.69</v>
+      </c>
+      <c r="L457" t="n">
+        <v>407.0833333333333</v>
+      </c>
+      <c r="M457" t="n">
+        <v>412.3281818181818</v>
+      </c>
+      <c r="N457" t="n">
+        <v>427.22</v>
+      </c>
+      <c r="O457" t="n">
+        <v>424.4733333333333</v>
+      </c>
+      <c r="P457" t="n">
+        <v>418.6333333333333</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>413.5233333333333</v>
+      </c>
+      <c r="R457" t="n">
+        <v>374.4433333333333</v>
+      </c>
+      <c r="S457" t="n">
+        <v>398.16</v>
+      </c>
+      <c r="T457" t="n">
+        <v>389.88</v>
+      </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>382.78</v>
+      </c>
+      <c r="C458" t="n">
+        <v>380.45</v>
+      </c>
+      <c r="D458" t="n">
+        <v>383.93</v>
+      </c>
+      <c r="E458" t="n">
+        <v>375.1663636363636</v>
+      </c>
+      <c r="F458" t="n">
+        <v>371.44</v>
+      </c>
+      <c r="G458" t="n">
+        <v>371.7615384615385</v>
+      </c>
+      <c r="H458" t="n">
+        <v>380.78</v>
+      </c>
+      <c r="I458" t="n">
+        <v>391.52</v>
+      </c>
+      <c r="J458" t="n">
+        <v>391.78</v>
+      </c>
+      <c r="K458" t="n">
+        <v>402.58</v>
+      </c>
+      <c r="L458" t="n">
+        <v>406.8033333333333</v>
+      </c>
+      <c r="M458" t="n">
+        <v>411.3363636363636</v>
+      </c>
+      <c r="N458" t="n">
+        <v>421.57</v>
+      </c>
+      <c r="O458" t="n">
+        <v>427.9033333333333</v>
+      </c>
+      <c r="P458" t="n">
+        <v>425.4833333333333</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>417.8433333333333</v>
+      </c>
+      <c r="R458" t="n">
+        <v>392.7233333333333</v>
+      </c>
+      <c r="S458" t="n">
+        <v>399.13</v>
+      </c>
+      <c r="T458" t="n">
+        <v>395.28</v>
+      </c>
+      <c r="U458" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -27420,7 +28027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B461"/>
+  <dimension ref="A1:B470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32038,6 +32645,96 @@
       </c>
       <c r="B461" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -32206,28 +32903,28 @@
         <v>0.0941</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.431965703106185</v>
+        <v>-1.389844813642176</v>
       </c>
       <c r="J2" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K2" t="n">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4091808543334893</v>
+        <v>0.4041622657649441</v>
       </c>
       <c r="M2" t="n">
-        <v>9.592268514025267</v>
+        <v>9.548375057405357</v>
       </c>
       <c r="N2" t="n">
-        <v>160.398987872523</v>
+        <v>158.9390954893985</v>
       </c>
       <c r="O2" t="n">
-        <v>12.66487220119188</v>
+        <v>12.60710496067192</v>
       </c>
       <c r="P2" t="n">
-        <v>409.5550124154595</v>
+        <v>409.1565259938117</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32283,28 +32980,28 @@
         <v>0.1173</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.270445864556546</v>
+        <v>-1.240585453375135</v>
       </c>
       <c r="J3" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K3" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3691949066678912</v>
+        <v>0.3666499510563398</v>
       </c>
       <c r="M3" t="n">
-        <v>9.334592084741439</v>
+        <v>9.276750762817434</v>
       </c>
       <c r="N3" t="n">
-        <v>151.1186628026628</v>
+        <v>149.5982311085986</v>
       </c>
       <c r="O3" t="n">
-        <v>12.29303310020203</v>
+        <v>12.23103556975445</v>
       </c>
       <c r="P3" t="n">
-        <v>401.5224966605394</v>
+        <v>401.2381047656035</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32360,28 +33057,28 @@
         <v>0.0887</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.206174679327925</v>
+        <v>-1.18140808560248</v>
       </c>
       <c r="J4" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3063977418996829</v>
+        <v>0.3042069347004076</v>
       </c>
       <c r="M4" t="n">
-        <v>10.17332949732695</v>
+        <v>10.10867163875596</v>
       </c>
       <c r="N4" t="n">
-        <v>180.0882441555549</v>
+        <v>178.763857778472</v>
       </c>
       <c r="O4" t="n">
-        <v>13.4196961275416</v>
+        <v>13.37026019860765</v>
       </c>
       <c r="P4" t="n">
-        <v>398.0444846995729</v>
+        <v>397.8049961898608</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32437,28 +33134,28 @@
         <v>0.0669</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.08937037107086</v>
+        <v>-1.092178694757653</v>
       </c>
       <c r="J5" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K5" t="n">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2581941493043991</v>
+        <v>0.2664410163852486</v>
       </c>
       <c r="M5" t="n">
-        <v>10.84753063984281</v>
+        <v>10.81336624004258</v>
       </c>
       <c r="N5" t="n">
-        <v>186.0441512162561</v>
+        <v>184.1315122440863</v>
       </c>
       <c r="O5" t="n">
-        <v>13.6398002630631</v>
+        <v>13.56950670599659</v>
       </c>
       <c r="P5" t="n">
-        <v>395.9912839419771</v>
+        <v>396.0176275102502</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -32514,28 +33211,28 @@
         <v>0.0853</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9241510592488265</v>
+        <v>-0.9179762769635369</v>
       </c>
       <c r="J6" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K6" t="n">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2065943961230772</v>
+        <v>0.2116161530684207</v>
       </c>
       <c r="M6" t="n">
-        <v>10.37514046221819</v>
+        <v>10.25040805660987</v>
       </c>
       <c r="N6" t="n">
-        <v>179.4537599754274</v>
+        <v>176.3590646105699</v>
       </c>
       <c r="O6" t="n">
-        <v>13.39603523343483</v>
+        <v>13.28002502296475</v>
       </c>
       <c r="P6" t="n">
-        <v>391.9288028317928</v>
+        <v>391.8694835883883</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32591,28 +33288,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9042280112392046</v>
+        <v>-0.904236601516997</v>
       </c>
       <c r="J7" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K7" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1701717798041267</v>
+        <v>0.1765488599889757</v>
       </c>
       <c r="M7" t="n">
-        <v>11.82811327728462</v>
+        <v>11.66990192625354</v>
       </c>
       <c r="N7" t="n">
-        <v>218.01826558045</v>
+        <v>213.6636905420123</v>
       </c>
       <c r="O7" t="n">
-        <v>14.76544159788152</v>
+        <v>14.61723949800414</v>
       </c>
       <c r="P7" t="n">
-        <v>391.4102383222473</v>
+        <v>391.4099005382298</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32668,28 +33365,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6654938482867484</v>
+        <v>-0.6705392838483459</v>
       </c>
       <c r="J8" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K8" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09351797009476581</v>
+        <v>0.09884766927567523</v>
       </c>
       <c r="M8" t="n">
-        <v>12.4953126600591</v>
+        <v>12.30452504634759</v>
       </c>
       <c r="N8" t="n">
-        <v>232.789996357234</v>
+        <v>227.9958028663684</v>
       </c>
       <c r="O8" t="n">
-        <v>15.25745707374705</v>
+        <v>15.09952988891934</v>
       </c>
       <c r="P8" t="n">
-        <v>388.5628979411501</v>
+        <v>388.6110479899262</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32745,28 +33442,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.425720995160219</v>
+        <v>-0.4134021834248335</v>
       </c>
       <c r="J9" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K9" t="n">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04009026677385963</v>
+        <v>0.03953992053431155</v>
       </c>
       <c r="M9" t="n">
-        <v>12.29548027670508</v>
+        <v>12.14722511871638</v>
       </c>
       <c r="N9" t="n">
-        <v>233.3617371960273</v>
+        <v>228.8335150232296</v>
       </c>
       <c r="O9" t="n">
-        <v>15.27618202287559</v>
+        <v>15.12724413180503</v>
       </c>
       <c r="P9" t="n">
-        <v>387.7565106943991</v>
+        <v>387.635601726714</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32822,28 +33519,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2322846108364067</v>
+        <v>-0.2119226026887316</v>
       </c>
       <c r="J10" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K10" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01495944292005569</v>
+        <v>0.01295347215325382</v>
       </c>
       <c r="M10" t="n">
-        <v>11.19768012554023</v>
+        <v>11.12253456000765</v>
       </c>
       <c r="N10" t="n">
-        <v>198.7147880714336</v>
+        <v>195.9501082181787</v>
       </c>
       <c r="O10" t="n">
-        <v>14.09662328614316</v>
+        <v>13.99821803724241</v>
       </c>
       <c r="P10" t="n">
-        <v>390.8192494660847</v>
+        <v>390.6258278534961</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32899,28 +33596,28 @@
         <v>0.0527</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0162323723326719</v>
+        <v>0.02136901885806289</v>
       </c>
       <c r="J11" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K11" t="n">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="L11" t="n">
-        <v>7.726953287401361e-05</v>
+        <v>0.0001378800053053464</v>
       </c>
       <c r="M11" t="n">
-        <v>10.95427073157003</v>
+        <v>10.95325526329683</v>
       </c>
       <c r="N11" t="n">
-        <v>192.9140003472485</v>
+        <v>191.7229322973257</v>
       </c>
       <c r="O11" t="n">
-        <v>13.88934844934234</v>
+        <v>13.84640503153529</v>
       </c>
       <c r="P11" t="n">
-        <v>389.6185553567578</v>
+        <v>389.2632190003287</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -32976,28 +33673,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1947225418234236</v>
+        <v>0.2373993009571366</v>
       </c>
       <c r="J12" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K12" t="n">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009225920581265257</v>
+        <v>0.01414301755166492</v>
       </c>
       <c r="M12" t="n">
-        <v>12.01027070128168</v>
+        <v>11.95245564928245</v>
       </c>
       <c r="N12" t="n">
-        <v>232.9407510869236</v>
+        <v>230.2133830711507</v>
       </c>
       <c r="O12" t="n">
-        <v>15.26239663640424</v>
+        <v>15.17278428869107</v>
       </c>
       <c r="P12" t="n">
-        <v>388.057453738918</v>
+        <v>387.659305770409</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33053,28 +33750,28 @@
         <v>0.0604</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3309311133887772</v>
+        <v>0.4020340242914267</v>
       </c>
       <c r="J13" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K13" t="n">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02235274237838936</v>
+        <v>0.03367606863215333</v>
       </c>
       <c r="M13" t="n">
-        <v>12.44280608995126</v>
+        <v>12.45757593092724</v>
       </c>
       <c r="N13" t="n">
-        <v>262.9495103175672</v>
+        <v>261.598360972459</v>
       </c>
       <c r="O13" t="n">
-        <v>16.21571800191306</v>
+        <v>16.17400262682244</v>
       </c>
       <c r="P13" t="n">
-        <v>385.6494830976686</v>
+        <v>384.9709355834954</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33130,28 +33827,28 @@
         <v>0.053</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5941593595727661</v>
+        <v>0.6375490925376457</v>
       </c>
       <c r="J14" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K14" t="n">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06826649009424735</v>
+        <v>0.08057936144483091</v>
       </c>
       <c r="M14" t="n">
-        <v>12.73741181981149</v>
+        <v>12.67554656585491</v>
       </c>
       <c r="N14" t="n">
-        <v>263.0308653077395</v>
+        <v>261.1155543952615</v>
       </c>
       <c r="O14" t="n">
-        <v>16.21822633051283</v>
+        <v>16.15907034439982</v>
       </c>
       <c r="P14" t="n">
-        <v>383.0386900587776</v>
+        <v>382.6280605706008</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33207,28 +33904,28 @@
         <v>0.052</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4137125161999922</v>
+        <v>0.476854638304655</v>
       </c>
       <c r="J15" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K15" t="n">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02850391706902133</v>
+        <v>0.03852503929774931</v>
       </c>
       <c r="M15" t="n">
-        <v>13.09975775520514</v>
+        <v>13.06504540048856</v>
       </c>
       <c r="N15" t="n">
-        <v>316.1957795496017</v>
+        <v>316.3372592180599</v>
       </c>
       <c r="O15" t="n">
-        <v>17.78189471202666</v>
+        <v>17.78587246153699</v>
       </c>
       <c r="P15" t="n">
-        <v>382.9853471736021</v>
+        <v>382.3767225034245</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33284,28 +33981,28 @@
         <v>0.0508</v>
       </c>
       <c r="I16" t="n">
-        <v>1.007413649837839</v>
+        <v>1.035281790102653</v>
       </c>
       <c r="J16" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K16" t="n">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1779085420168114</v>
+        <v>0.191698724170312</v>
       </c>
       <c r="M16" t="n">
-        <v>12.1804125858899</v>
+        <v>12.11347721085385</v>
       </c>
       <c r="N16" t="n">
-        <v>246.7511331534817</v>
+        <v>244.114469522128</v>
       </c>
       <c r="O16" t="n">
-        <v>15.70831414103632</v>
+        <v>15.62416300229001</v>
       </c>
       <c r="P16" t="n">
-        <v>374.2124092190606</v>
+        <v>373.9352594096035</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33361,28 +34058,28 @@
         <v>0.0489</v>
       </c>
       <c r="I17" t="n">
-        <v>1.167802884563062</v>
+        <v>1.279218940956602</v>
       </c>
       <c r="J17" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K17" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1828034144869179</v>
+        <v>0.2516996366062414</v>
       </c>
       <c r="M17" t="n">
-        <v>13.07035630201866</v>
+        <v>12.37975293534836</v>
       </c>
       <c r="N17" t="n">
-        <v>328.2790420386522</v>
+        <v>267.2897402995939</v>
       </c>
       <c r="O17" t="n">
-        <v>18.11847239804317</v>
+        <v>16.34899814360482</v>
       </c>
       <c r="P17" t="n">
-        <v>367.5618188428141</v>
+        <v>366.4802217815316</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -33438,28 +34135,28 @@
         <v>0.0474</v>
       </c>
       <c r="I18" t="n">
-        <v>1.129111064633131</v>
+        <v>1.12320734400122</v>
       </c>
       <c r="J18" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K18" t="n">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1455095517712183</v>
+        <v>0.1499708846805876</v>
       </c>
       <c r="M18" t="n">
-        <v>14.28920251521905</v>
+        <v>14.16816502050437</v>
       </c>
       <c r="N18" t="n">
-        <v>404.6050474195572</v>
+        <v>394.1814651537832</v>
       </c>
       <c r="O18" t="n">
-        <v>20.1147967282684</v>
+        <v>19.85400375626496</v>
       </c>
       <c r="P18" t="n">
-        <v>363.026862495568</v>
+        <v>363.089648910436</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -33515,28 +34212,28 @@
         <v>0.0423</v>
       </c>
       <c r="I19" t="n">
-        <v>1.211582318925513</v>
+        <v>1.220843414824693</v>
       </c>
       <c r="J19" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K19" t="n">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L19" t="n">
-        <v>0.156501246031632</v>
+        <v>0.1632106083973518</v>
       </c>
       <c r="M19" t="n">
-        <v>15.75473778283258</v>
+        <v>15.67728621595495</v>
       </c>
       <c r="N19" t="n">
-        <v>426.3578400562938</v>
+        <v>421.4742721904817</v>
       </c>
       <c r="O19" t="n">
-        <v>20.64843432457516</v>
+        <v>20.52983858169571</v>
       </c>
       <c r="P19" t="n">
-        <v>353.7884593815355</v>
+        <v>353.6982263931699</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -33592,28 +34289,28 @@
         <v>0.0495</v>
       </c>
       <c r="I20" t="n">
-        <v>1.037879429117446</v>
+        <v>1.175062306220696</v>
       </c>
       <c r="J20" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K20" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1070297714370998</v>
+        <v>0.138480403236547</v>
       </c>
       <c r="M20" t="n">
-        <v>17.13067053889915</v>
+        <v>17.04277568571681</v>
       </c>
       <c r="N20" t="n">
-        <v>495.2849979781298</v>
+        <v>485.9292267657315</v>
       </c>
       <c r="O20" t="n">
-        <v>22.25499939290338</v>
+        <v>22.04380245705653</v>
       </c>
       <c r="P20" t="n">
-        <v>341.6049222784349</v>
+        <v>340.301363854902</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -33650,7 +34347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U449"/>
+  <dimension ref="A1:U458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73476,26 +74173,14 @@
         </is>
       </c>
       <c r="P448" t="inlineStr"/>
-      <c r="Q448" t="inlineStr">
-        <is>
-          <t>-42.100711506355864,171.33735526898224</t>
-        </is>
-      </c>
-      <c r="R448" t="inlineStr">
-        <is>
-          <t>-42.099993116016755,171.33716259833213</t>
-        </is>
-      </c>
+      <c r="Q448" t="inlineStr"/>
+      <c r="R448" t="inlineStr"/>
       <c r="S448" t="inlineStr">
         <is>
           <t>-42.09932980770431,171.33728506657806</t>
         </is>
       </c>
-      <c r="T448" t="inlineStr">
-        <is>
-          <t>-42.098731551192,171.33777969974514</t>
-        </is>
-      </c>
+      <c r="T448" t="inlineStr"/>
       <c r="U448" t="inlineStr">
         <is>
           <t>L9</t>
@@ -73583,16 +74268,8 @@
           <t>-42.10121791942192,171.33633536038448</t>
         </is>
       </c>
-      <c r="Q449" t="inlineStr">
-        <is>
-          <t>-42.100714894634976,171.33737465201506</t>
-        </is>
-      </c>
-      <c r="R449" t="inlineStr">
-        <is>
-          <t>-42.09997384917597,171.33705238321937</t>
-        </is>
-      </c>
+      <c r="Q449" t="inlineStr"/>
+      <c r="R449" t="inlineStr"/>
       <c r="S449" t="inlineStr">
         <is>
           <t>-42.099287604494,171.3370436474152</t>
@@ -73604,6 +74281,961 @@
         </is>
       </c>
       <c r="U449" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:34+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>-42.110340168449746,171.3336722816736</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>-42.10969358689942,171.33389188033024</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>-42.10904890864884,171.33412350164502</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>-42.10841191185435,171.33440351648605</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>-42.10774378081818,171.33448759830435</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>-42.10710048054819,171.33472802015947</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>-42.10644443499319,171.33488825916592</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>-42.10576104491135,171.33487642250742</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>-42.10508031571929,171.3348866047897</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>-42.10440247983182,171.33494439671918</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>-42.103750387730656,171.33515534743137</t>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>-42.1030924399716,171.33530825459238</t>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>-42.102472528402565,171.33567877769826</t>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>-42.101815802157645,171.33583874823537</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>-42.10115763342719,171.33599050582873</t>
+        </is>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>-42.100522073078025,171.3362716274844</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>-42.09986317084046,171.3364192656499</t>
+        </is>
+      </c>
+      <c r="S450" t="inlineStr"/>
+      <c r="T450" t="inlineStr">
+        <is>
+          <t>-42.098556072006325,171.33677589596493</t>
+        </is>
+      </c>
+      <c r="U450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>-42.11033642008809,171.33364868755172</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>-42.10969251594979,171.3338851392174</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>-42.10904962260766,171.33412799567728</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>-42.10839104668653,171.3342721802042</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>-42.10775313727973,171.33454649262745</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>-42.10709539046744,171.33469598065128</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>-42.106428266720734,171.33478648856115</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>-42.10576287538277,171.33488794422362</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>-42.10508207903574,171.33489759805397</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>-42.10440190399371,171.3349409764515</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>-42.10375104624565,171.33515911433173</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>-42.103087551641835,171.33528029206042</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>-42.102451209364,171.3355568266309</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>-42.10181290065189,171.33582215080838</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>-42.10116004104546,171.33600427802506</t>
+        </is>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>-42.100521887878685,171.33627056809453</t>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>-42.09997212756992,171.33704253488054</t>
+        </is>
+      </c>
+      <c r="S451" t="inlineStr">
+        <is>
+          <t>-42.09928766622506,171.337044000539</t>
+        </is>
+      </c>
+      <c r="T451" t="inlineStr">
+        <is>
+          <t>-42.09862638406973,171.3371780994797</t>
+        </is>
+      </c>
+      <c r="U451" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-42.11033966115296,171.33366908848402</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-42.10970348846771,171.3339542060694</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-42.10906526076727,171.33422643077913</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-42.10842210526135,171.33446767949633</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-42.10776342058514,171.33461122121514</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>-42.107112371821025,171.33480287000256</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>-42.1064530156287,171.3349422699157</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-42.10578270183783,171.3350127403351</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>-42.10511349623002,171.3350934673973</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>-42.10442604939409,171.33508439186963</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>-42.10376319216682,171.33522859273083</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>-42.10310481884616,171.33537906520343</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>-42.10246837161167,171.33565499958763</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>-42.101821753781024,171.33587279323834</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>-42.1011749851618,171.33608976245148</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>-42.1005287653983,171.3363099093913</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>-42.09991027723204,171.3366887274666</t>
+        </is>
+      </c>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>-42.09922595521501,171.33669099477046</t>
+        </is>
+      </c>
+      <c r="T452" t="inlineStr">
+        <is>
+          <t>-42.098584283423264,171.3369372716267</t>
+        </is>
+      </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-42.11034214126975,171.33368469963366</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-42.10969621730034,171.33390843745062</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-42.10905570377618,171.33416627379856</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-42.10841592739139,171.33442879249506</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-42.107749598862384,171.33452422000644</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-42.10709946600129,171.3347216340901</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-42.10644553273622,171.33489516889188</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-42.10578438736213,171.3350233497822</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-42.10511087972316,171.33507715479482</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>-42.1044228128088,171.33506516759232</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>-42.10377769084841,171.33531152999026</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>-42.10309965740139,171.3353495402678</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>-42.10245956413763,171.3356046182552</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>-42.10182456382178,171.33588886750442</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>-42.10116452245784,171.33602991288538</t>
+        </is>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>-42.100488032819406,171.33607690912177</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>-42.099898785918434,171.3366229935499</t>
+        </is>
+      </c>
+      <c r="S453" t="inlineStr"/>
+      <c r="T453" t="inlineStr">
+        <is>
+          <t>-42.09855088651356,171.336746233934</t>
+        </is>
+      </c>
+      <c r="U453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-42.110306771223414,171.33346206347287</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-42.10965796352248,171.33366764975662</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-42.10900203749693,171.33382847260143</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-42.10835881947949,171.33406932732382</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-42.10771070103999,171.33427937902994</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-42.107085191491315,171.33463178339068</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-42.106429098755534,171.33479172575892</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-42.10575780803384,171.33485604833066</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-42.10506203784016,171.33477265314178</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>-42.10439330612327,171.33488990832444</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>-42.10372804387871,171.33502753445785</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>-42.10308077569099,171.33524153191067</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>-42.10242828508094,171.33542569401507</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>-42.101771193244666,171.33558357441504</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>-42.101138891446304,171.33588329723037</t>
+        </is>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>-42.10052516430509,171.33628931014073</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>-42.099957399001724,171.33695828125306</t>
+        </is>
+      </c>
+      <c r="S454" t="inlineStr">
+        <is>
+          <t>-42.09925317897748,171.33684672213505</t>
+        </is>
+      </c>
+      <c r="T454" t="inlineStr">
+        <is>
+          <t>-42.098584612658,171.3369391549322</t>
+        </is>
+      </c>
+      <c r="U454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:37+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-42.11034022481605,171.33367263647244</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-42.10970457820183,171.33396106544993</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-42.10905371221054,171.33415373781153</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-42.10841221758874,171.334405440946</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-42.107742647268935,171.33448046318344</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-42.10707792486171,171.3345860438791</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-42.10643176931723,171.3348085354754</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>-42.10575972707856,171.33486812754796</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>-42.105093531086965,171.33496899518389</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>-42.104443086091194,171.33518558472528</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>-42.103759835579815,171.33520939199576</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>-42.10308330872327,171.33525602148524</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>-42.102444212740366,171.33551680409852</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>-42.10178874420949,171.3356839697698</t>
+        </is>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>-42.10113456776675,171.3358585648426</t>
+        </is>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>-42.10052151976639,171.33626846239375</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>-42.099849715349315,171.3363422971886</t>
+        </is>
+      </c>
+      <c r="S455" t="inlineStr">
+        <is>
+          <t>-42.09920644780985,171.3365794079012</t>
+        </is>
+      </c>
+      <c r="T455" t="inlineStr">
+        <is>
+          <t>-42.098568068573584,171.33684451885748</t>
+        </is>
+      </c>
+      <c r="U455" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-42.110338862630066,171.33366406216714</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-42.10970112111288,171.33393930465743</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-42.109049854331104,171.33412945426673</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-42.10841198700693,171.33440398953766</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-42.10774036764369,171.33446611410133</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-42.10707018995688,171.33453735696483</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>-42.106428744469774,171.3347894957263</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>-42.10575365859857,171.33482993019348</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>-42.10509815739984,171.33499783774073</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>-42.10444584610724,171.335201978445</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>-42.103756737364876,171.3351916692483</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>-42.10308867410622,171.33528671284807</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>-42.10244981004039,171.33554882212368</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>-42.10179881608267,171.33574158333667</t>
+        </is>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>-42.10114239657237,171.33590334733896</t>
+        </is>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>-42.10051006711065,171.33620295026157</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>-42.09985161764105,171.336353178709</t>
+        </is>
+      </c>
+      <c r="S456" t="inlineStr">
+        <is>
+          <t>-42.09922321842309,171.3366753396463</t>
+        </is>
+      </c>
+      <c r="T456" t="inlineStr">
+        <is>
+          <t>-42.098582843020836,171.3369290321655</t>
+        </is>
+      </c>
+      <c r="U456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:46+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>-42.11032097565999,171.3335514727045</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-42.10968719877306,171.33385167018682</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-42.10903585694981,171.33404134760022</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-42.10838069774033,171.33420703890422</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-42.107731725092314,171.33441171374494</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>-42.10708942890501,171.33465845568054</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>-42.10642255251407,171.33475052084222</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>-42.10576091876445,171.3348756284889</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>-42.10508073284801,171.3348892053468</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>-42.10440881404419,171.33498201966802</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>-42.10374314177119,171.33511389845327</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>-42.10308160818704,171.33524629399375</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>-42.10240021600815,171.33526513320925</t>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>-42.101755114692,171.335491602067</t>
+        </is>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>-42.10111637212893,171.33575448220446</t>
+        </is>
+      </c>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t>-42.10047612048079,171.33600876820958</t>
+        </is>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>-42.099905763935055,171.33666290996428</t>
+        </is>
+      </c>
+      <c r="S457" t="inlineStr">
+        <is>
+          <t>-42.0992061803025,171.33657787770204</t>
+        </is>
+      </c>
+      <c r="T457" t="inlineStr">
+        <is>
+          <t>-42.0985724309516,171.33686947264331</t>
+        </is>
+      </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-42.110331018305295,171.33361468600276</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-42.10968191916395,171.33381843769234</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-42.10902189707861,171.33395347750235</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-42.10838487216701,171.33423331474526</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-42.1077383761015,171.33445357836567</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-42.10708426798868,171.33462597043302</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-42.10641381343334,171.33469551339041</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-42.10574011787136,171.3347446999455</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>-42.105085359180734,171.3349180478914</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>-42.10440704682004,171.33497152298244</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>-42.103743717972996,171.3351171944903</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>-42.103083649204585,171.33525796912383</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>-42.102411842887115,171.33533164114965</t>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>-42.10174805629409,171.33545122684941</t>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>-42.1011022760472,171.33567385024637</t>
+        </is>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>-42.10046723078626,171.3359579175808</t>
+        </is>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>-42.09986814833034,171.33644773810383</t>
+        </is>
+      </c>
+      <c r="S458" t="inlineStr">
+        <is>
+          <t>-42.09920418428543,171.3365664600624</t>
+        </is>
+      </c>
+      <c r="T458" t="inlineStr">
+        <is>
+          <t>-42.098561319223414,171.33680591112042</t>
+        </is>
+      </c>
+      <c r="U458" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0381/nzd0381.xlsx
+++ b/data/nzd0381/nzd0381.xlsx
@@ -32748,7 +32748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32839,35 +32839,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -32926,27 +32931,28 @@
       <c r="P2" t="n">
         <v>409.1565259938117</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (171.33814173532414 -42.11105012855647, 171.32753262194944 -42.10936459239621)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>171.3381417353241</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.11105012855647</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>171.3275326219494</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.10936459239621</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>171.3328371786368</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.11020736047634</v>
       </c>
     </row>
@@ -33003,27 +33009,28 @@
       <c r="P3" t="n">
         <v>401.2381047656035</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (171.3383178864921 -42.110396646392964, 171.32770884197163 -42.10871111684178)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>171.3383178864921</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.11039664639296</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>171.3277088419716</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.10871111684178</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>171.3330133642319</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.10955388161737</v>
       </c>
     </row>
@@ -33080,27 +33087,28 @@
       <c r="P4" t="n">
         <v>397.8049961898608</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (171.33849403766052 -42.10974315749268, 171.32788506199276 -42.10805763455035)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>171.3384940376605</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.10974315749268</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>171.3278850619928</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.10805763455035</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>171.3331895498266</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.10890039602151</v>
       </c>
     </row>
@@ -33157,27 +33165,28 @@
       <c r="P5" t="n">
         <v>396.0176275102502</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (171.33867018882938 -42.109089661855585, 171.32806128201298 -42.107404145521926)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>171.3386701888294</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.10908966185558</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>171.328061282013</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.10740414552193</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>171.3333657354212</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.10824690368875</v>
       </c>
     </row>
@@ -33234,27 +33243,28 @@
       <c r="P6" t="n">
         <v>391.8694835883883</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (171.3388463399988 -42.10843615948178, 171.3282375020322 -42.1067506497565)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>171.3388463399988</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.10843615948178</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>171.3282375020322</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.1067506497565</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>171.3335419210155</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.10759340461914</v>
       </c>
     </row>
@@ -33311,27 +33321,28 @@
       <c r="P7" t="n">
         <v>391.4099005382298</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (171.33902249116863 -42.10778265037122, 171.32841372205047 -42.10609714725414)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>171.3390224911686</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.10778265037122</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>171.3284137220505</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.10609714725414</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>171.3337181066096</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.10693989881268</v>
       </c>
     </row>
@@ -33388,27 +33399,28 @@
       <c r="P8" t="n">
         <v>388.6110479899262</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (171.33919864233897 -42.10712913452397, 171.3285899420678 -42.10544363801472)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>171.339198642339</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.10712913452397</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>171.3285899420678</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.10544363801472</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>171.3338942922034</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.10628638626935</v>
       </c>
     </row>
@@ -33465,27 +33477,28 @@
       <c r="P9" t="n">
         <v>387.635601726714</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (171.33937479350988 -42.106475611940034, 171.3287661620842 -42.10479012203837)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>171.3393747935099</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.10647561194003</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>171.3287661620842</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.10479012203837</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>171.334070477797</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.1056328669892</v>
       </c>
     </row>
@@ -33542,27 +33555,28 @@
       <c r="P10" t="n">
         <v>390.6258278534961</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (171.33954922491756 -42.10582809579452, 171.32894512844607 -42.104127136896764)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>171.3395492249176</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.10582809579452</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>171.3289451284461</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.10412713689676</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>171.3342471766818</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.10497761634564</v>
       </c>
     </row>
@@ -33619,27 +33633,28 @@
       <c r="P11" t="n">
         <v>389.2632190003287</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (171.33971962559818 -42.10520633078657, 171.32913948227377 -42.10342500027479)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>171.3397196255982</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-42.10520633078657</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>171.3291394822738</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-42.10342500027479</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>171.334429553936</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-42.10431566553068</v>
       </c>
     </row>
@@ -33696,27 +33711,28 @@
       <c r="P12" t="n">
         <v>387.659305770409</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (171.33990597076183 -42.10458076476322, 171.3293459902539 -42.102734655667234)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>171.3399059707618</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-42.10458076476322</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>171.3293459902539</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-42.10273465566723</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>171.3346259805079</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-42.10365771021523</v>
       </c>
     </row>
@@ -33773,27 +33789,28 @@
       <c r="P13" t="n">
         <v>384.9709355834954</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (171.3401000589257 -42.10393001824889, 171.32954014588105 -42.1020839162535)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>171.3401000589257</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-42.10393001824889</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>171.3295401458811</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-42.1020839162535</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>171.3348201024034</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-42.10300696725119</v>
       </c>
     </row>
@@ -33850,27 +33867,28 @@
       <c r="P14" t="n">
         <v>382.6280605706008</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (171.34029414709013 -42.10327926505562, 171.32973430150733 -42.10143317016057)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>171.3402941470901</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-42.10327926505562</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>171.3297343015073</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-42.10143317016057</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>171.3350142242987</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-42.10235621760809</v>
       </c>
     </row>
@@ -33927,27 +33945,28 @@
       <c r="P15" t="n">
         <v>382.3767225034245</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (171.34048823525498 -42.10262850518334, 171.32992845713267 -42.10078241738853)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>171.340488235255</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-42.10262850518334</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>171.3299284571327</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-42.10078241738853</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>171.3352083461938</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-42.10170546128593</v>
       </c>
     </row>
@@ -34004,27 +34023,28 @@
       <c r="P16" t="n">
         <v>373.9352594096035</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (171.34068232342028 -42.10197773863218, 171.33012261275707 -42.1001316579372)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>171.3406823234203</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-42.10197773863218</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>171.3301226127571</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-42.1001316579372</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>171.3354024680887</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-42.10105469828468</v>
       </c>
     </row>
@@ -34081,27 +34101,28 @@
       <c r="P17" t="n">
         <v>366.4802217815316</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (171.34087641158604 -42.10132696540215, 171.33031676838056 -42.09948089180668)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>171.340876411586</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-42.10132696540215</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>171.3303167683806</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-42.09948089180668</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>171.3355965899833</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-42.10040392860441</v>
       </c>
     </row>
@@ -34158,27 +34179,28 @@
       <c r="P18" t="n">
         <v>363.089648910436</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (171.34107049975236 -42.10067618549318, 171.3305109240032 -42.09883011899707)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>171.3410704997524</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-42.10067618549318</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>171.3305109240032</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-42.09883011899707</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>171.3357907118778</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-42.09975315224513</v>
       </c>
     </row>
@@ -34235,27 +34257,28 @@
       <c r="P19" t="n">
         <v>353.6982263931699</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (171.341264587919 -42.10002539890539, 171.33070507962483 -42.09817933950822)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>171.341264587919</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-42.10002539890539</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>171.3307050796248</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-42.09817933950822</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>171.3359848337719</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-42.0991023692068</v>
       </c>
     </row>
@@ -34312,27 +34335,28 @@
       <c r="P20" t="n">
         <v>340.301363854902</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (171.3414586760862 -42.09937460563874, 171.33089923524557 -42.097528553340304)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>171.3414586760862</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-42.09937460563874</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>171.3308992352456</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-42.0975285533403</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>171.3361789556659</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-42.09845157948952</v>
       </c>
     </row>

--- a/data/nzd0381/nzd0381.xlsx
+++ b/data/nzd0381/nzd0381.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U458"/>
+  <dimension ref="A1:U462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28016,6 +28016,228 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:26+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>377.595</v>
+      </c>
+      <c r="C459" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="D459" t="n">
+        <v>376.3766666666667</v>
+      </c>
+      <c r="E459" t="n">
+        <v>371.7836363636364</v>
+      </c>
+      <c r="F459" t="n">
+        <v>368.0866666666667</v>
+      </c>
+      <c r="G459" t="n">
+        <v>372.7846153846153</v>
+      </c>
+      <c r="H459" t="n">
+        <v>377.24</v>
+      </c>
+      <c r="I459" t="n">
+        <v>385.02</v>
+      </c>
+      <c r="J459" t="n">
+        <v>390.05</v>
+      </c>
+      <c r="K459" t="n">
+        <v>396.04</v>
+      </c>
+      <c r="L459" t="n">
+        <v>395.6877777777778</v>
+      </c>
+      <c r="M459" t="n">
+        <v>401.5736363636364</v>
+      </c>
+      <c r="N459" t="n">
+        <v>408.51</v>
+      </c>
+      <c r="O459" t="n">
+        <v>415.6477777777778</v>
+      </c>
+      <c r="P459" t="n">
+        <v>422.5177777777778</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>399.8377777777778</v>
+      </c>
+      <c r="R459" t="inlineStr"/>
+      <c r="S459" t="n">
+        <v>382.05</v>
+      </c>
+      <c r="T459" t="n">
+        <v>377.78</v>
+      </c>
+      <c r="U459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>376.05</v>
+      </c>
+      <c r="C460" t="n">
+        <v>370.2</v>
+      </c>
+      <c r="D460" t="n">
+        <v>364.66</v>
+      </c>
+      <c r="E460" t="n">
+        <v>366.6963636363636</v>
+      </c>
+      <c r="F460" t="n">
+        <v>364.71</v>
+      </c>
+      <c r="G460" t="n">
+        <v>363.7315384615384</v>
+      </c>
+      <c r="H460" t="n">
+        <v>377.48</v>
+      </c>
+      <c r="I460" t="n">
+        <v>374.79</v>
+      </c>
+      <c r="J460" t="n">
+        <v>389.67</v>
+      </c>
+      <c r="K460" t="n">
+        <v>402.41</v>
+      </c>
+      <c r="L460" t="n">
+        <v>403.8033333333333</v>
+      </c>
+      <c r="M460" t="n">
+        <v>407.0563636363637</v>
+      </c>
+      <c r="N460" t="n">
+        <v>404.3</v>
+      </c>
+      <c r="O460" t="n">
+        <v>412.6233333333333</v>
+      </c>
+      <c r="P460" t="n">
+        <v>418.4133333333333</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>411.8333333333333</v>
+      </c>
+      <c r="R460" t="n">
+        <v>382.0333333333333</v>
+      </c>
+      <c r="S460" t="n">
+        <v>358.23</v>
+      </c>
+      <c r="T460" t="n">
+        <v>390.24</v>
+      </c>
+      <c r="U460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:04+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="n">
+        <v>317.7018181818182</v>
+      </c>
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="n">
+        <v>591.5566666666666</v>
+      </c>
+      <c r="S461" t="inlineStr"/>
+      <c r="T461" t="inlineStr"/>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:19:25+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="n">
+        <v>340.8228571428572</v>
+      </c>
+      <c r="I462" t="n">
+        <v>355.3928571428572</v>
+      </c>
+      <c r="J462" t="n">
+        <v>370.45</v>
+      </c>
+      <c r="K462" t="n">
+        <v>373.42</v>
+      </c>
+      <c r="L462" t="n">
+        <v>347.3288888888889</v>
+      </c>
+      <c r="M462" t="n">
+        <v>310.7654545454546</v>
+      </c>
+      <c r="N462" t="n">
+        <v>584.25</v>
+      </c>
+      <c r="O462" t="n">
+        <v>551.458888888889</v>
+      </c>
+      <c r="P462" t="n">
+        <v>491.6688888888889</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>503.9088888888889</v>
+      </c>
+      <c r="R462" t="inlineStr"/>
+      <c r="S462" t="inlineStr"/>
+      <c r="T462" t="inlineStr"/>
+      <c r="U462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28027,7 +28249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B470"/>
+  <dimension ref="A1:B474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32735,6 +32957,46 @@
       </c>
       <c r="B470" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -32908,28 +33170,28 @@
         <v>0.0941</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.389844813642176</v>
+        <v>-1.38637870538891</v>
       </c>
       <c r="J2" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K2" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4041622657649441</v>
+        <v>0.4057449935357608</v>
       </c>
       <c r="M2" t="n">
-        <v>9.548375057405357</v>
+        <v>9.512135144607891</v>
       </c>
       <c r="N2" t="n">
-        <v>158.9390954893985</v>
+        <v>158.1030057896718</v>
       </c>
       <c r="O2" t="n">
-        <v>12.60710496067192</v>
+        <v>12.57390177270651</v>
       </c>
       <c r="P2" t="n">
-        <v>409.1565259938117</v>
+        <v>409.1234899359268</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32986,28 +33248,28 @@
         <v>0.1173</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.240585453375135</v>
+        <v>-1.237663125071501</v>
       </c>
       <c r="J3" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K3" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3666499510563398</v>
+        <v>0.3680429704042667</v>
       </c>
       <c r="M3" t="n">
-        <v>9.276750762817434</v>
+        <v>9.241889089392538</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5982311085986</v>
+        <v>148.8397845661019</v>
       </c>
       <c r="O3" t="n">
-        <v>12.23103556975445</v>
+        <v>12.19999117073869</v>
       </c>
       <c r="P3" t="n">
-        <v>401.2381047656035</v>
+        <v>401.2100704090076</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33064,28 +33326,28 @@
         <v>0.0887</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.18140808560248</v>
+        <v>-1.178533891380342</v>
       </c>
       <c r="J4" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K4" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3042069347004076</v>
+        <v>0.3051192981560341</v>
       </c>
       <c r="M4" t="n">
-        <v>10.10867163875596</v>
+        <v>10.08611425851673</v>
       </c>
       <c r="N4" t="n">
-        <v>178.763857778472</v>
+        <v>178.0323598386163</v>
       </c>
       <c r="O4" t="n">
-        <v>13.37026019860765</v>
+        <v>13.34287674523812</v>
       </c>
       <c r="P4" t="n">
-        <v>397.8049961898608</v>
+        <v>397.7770777172497</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33142,28 +33404,28 @@
         <v>0.0669</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.092178694757653</v>
+        <v>-1.090963804402334</v>
       </c>
       <c r="J5" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K5" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2664410163852486</v>
+        <v>0.2682083174979807</v>
       </c>
       <c r="M5" t="n">
-        <v>10.81336624004258</v>
+        <v>10.76599085307302</v>
       </c>
       <c r="N5" t="n">
-        <v>184.1315122440863</v>
+        <v>183.1199721129761</v>
       </c>
       <c r="O5" t="n">
-        <v>13.56950670599659</v>
+        <v>13.53218282883349</v>
       </c>
       <c r="P5" t="n">
-        <v>396.0176275102502</v>
+        <v>396.0059307617847</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33220,28 +33482,28 @@
         <v>0.0853</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9179762769635369</v>
+        <v>-0.9200786555908768</v>
       </c>
       <c r="J6" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K6" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2116161530684207</v>
+        <v>0.2142211037958397</v>
       </c>
       <c r="M6" t="n">
-        <v>10.25040805660987</v>
+        <v>10.20366500512588</v>
       </c>
       <c r="N6" t="n">
-        <v>176.3590646105699</v>
+        <v>175.4141918513321</v>
       </c>
       <c r="O6" t="n">
-        <v>13.28002502296475</v>
+        <v>13.24440228365675</v>
       </c>
       <c r="P6" t="n">
-        <v>391.8694835883883</v>
+        <v>391.889756370929</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33298,28 +33560,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.904236601516997</v>
+        <v>-0.9042881478538903</v>
       </c>
       <c r="J7" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K7" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1765488599889757</v>
+        <v>0.1780440333754028</v>
       </c>
       <c r="M7" t="n">
-        <v>11.66990192625354</v>
+        <v>11.63074772148287</v>
       </c>
       <c r="N7" t="n">
-        <v>213.6636905420123</v>
+        <v>212.6071257215637</v>
       </c>
       <c r="O7" t="n">
-        <v>14.61723949800414</v>
+        <v>14.58105365608274</v>
       </c>
       <c r="P7" t="n">
-        <v>391.4099005382298</v>
+        <v>391.4104538755633</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33376,28 +33638,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6705392838483459</v>
+        <v>-0.6802812237100846</v>
       </c>
       <c r="J8" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K8" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09884766927567523</v>
+        <v>0.1018400953490954</v>
       </c>
       <c r="M8" t="n">
-        <v>12.30452504634759</v>
+        <v>12.31437491238673</v>
       </c>
       <c r="N8" t="n">
-        <v>227.9958028663684</v>
+        <v>228.8678645551249</v>
       </c>
       <c r="O8" t="n">
-        <v>15.09952988891934</v>
+        <v>15.1283794424626</v>
       </c>
       <c r="P8" t="n">
-        <v>388.6110479899262</v>
+        <v>388.7066370933417</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33454,28 +33716,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4134021834248335</v>
+        <v>-0.4217340207008428</v>
       </c>
       <c r="J9" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K9" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03953992053431155</v>
+        <v>0.04146965923437296</v>
       </c>
       <c r="M9" t="n">
-        <v>12.14722511871638</v>
+        <v>12.13416887212688</v>
       </c>
       <c r="N9" t="n">
-        <v>228.8335150232296</v>
+        <v>228.411142237163</v>
       </c>
       <c r="O9" t="n">
-        <v>15.12724413180503</v>
+        <v>15.11327701847495</v>
       </c>
       <c r="P9" t="n">
-        <v>387.635601726714</v>
+        <v>387.7183472885856</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33532,28 +33794,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2119226026887316</v>
+        <v>-0.2146287153896487</v>
       </c>
       <c r="J10" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K10" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01295347215325382</v>
+        <v>0.01344037037091106</v>
       </c>
       <c r="M10" t="n">
-        <v>11.12253456000765</v>
+        <v>11.09673512217167</v>
       </c>
       <c r="N10" t="n">
-        <v>195.9501082181787</v>
+        <v>195.0721762157332</v>
       </c>
       <c r="O10" t="n">
-        <v>13.99821803724241</v>
+        <v>13.96682412775836</v>
       </c>
       <c r="P10" t="n">
-        <v>390.6258278534961</v>
+        <v>390.652085055677</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33610,28 +33872,28 @@
         <v>0.0527</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02136901885806289</v>
+        <v>0.02250501836268305</v>
       </c>
       <c r="J11" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K11" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001378800053053464</v>
+        <v>0.0001543021671059908</v>
       </c>
       <c r="M11" t="n">
-        <v>10.95325526329683</v>
+        <v>10.95992546879049</v>
       </c>
       <c r="N11" t="n">
-        <v>191.7229322973257</v>
+        <v>191.4236217382446</v>
       </c>
       <c r="O11" t="n">
-        <v>13.84640503153529</v>
+        <v>13.83559256910396</v>
       </c>
       <c r="P11" t="n">
-        <v>389.2632190003287</v>
+        <v>389.2527212462383</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33688,28 +33950,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2373993009571366</v>
+        <v>0.2201562012965944</v>
       </c>
       <c r="J12" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K12" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01414301755166492</v>
+        <v>0.01205598705503697</v>
       </c>
       <c r="M12" t="n">
-        <v>11.95245564928245</v>
+        <v>12.01870962756647</v>
       </c>
       <c r="N12" t="n">
-        <v>230.2133830711507</v>
+        <v>234.5460059905193</v>
       </c>
       <c r="O12" t="n">
-        <v>15.17278428869107</v>
+        <v>15.31489490628386</v>
       </c>
       <c r="P12" t="n">
-        <v>387.659305770409</v>
+        <v>387.8226050113377</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33766,28 +34028,28 @@
         <v>0.0604</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4020340242914267</v>
+        <v>0.3251163754848485</v>
       </c>
       <c r="J13" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K13" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03367606863215333</v>
+        <v>0.01993118544234573</v>
       </c>
       <c r="M13" t="n">
-        <v>12.45757593092724</v>
+        <v>12.87840192364342</v>
       </c>
       <c r="N13" t="n">
-        <v>261.598360972459</v>
+        <v>296.5123111433474</v>
       </c>
       <c r="O13" t="n">
-        <v>16.17400262682244</v>
+        <v>17.21953283754665</v>
       </c>
       <c r="P13" t="n">
-        <v>384.9709355834954</v>
+        <v>385.7141385899827</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33844,28 +34106,28 @@
         <v>0.053</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6375490925376457</v>
+        <v>0.7518677124804544</v>
       </c>
       <c r="J14" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K14" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08057936144483091</v>
+        <v>0.08178806804481042</v>
       </c>
       <c r="M14" t="n">
-        <v>12.67554656585491</v>
+        <v>13.17697829198341</v>
       </c>
       <c r="N14" t="n">
-        <v>261.1155543952615</v>
+        <v>360.8012520351222</v>
       </c>
       <c r="O14" t="n">
-        <v>16.15907034439982</v>
+        <v>18.99476907032887</v>
       </c>
       <c r="P14" t="n">
-        <v>382.6280605706008</v>
+        <v>381.5358989936614</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33922,28 +34184,28 @@
         <v>0.052</v>
       </c>
       <c r="I15" t="n">
-        <v>0.476854638304655</v>
+        <v>0.5852596197009405</v>
       </c>
       <c r="J15" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K15" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03852503929774931</v>
+        <v>0.04739457013491266</v>
       </c>
       <c r="M15" t="n">
-        <v>13.06504540048856</v>
+        <v>13.49640436446981</v>
       </c>
       <c r="N15" t="n">
-        <v>316.3372592180599</v>
+        <v>387.1810553606368</v>
       </c>
       <c r="O15" t="n">
-        <v>17.78587246153699</v>
+        <v>19.67691681541183</v>
       </c>
       <c r="P15" t="n">
-        <v>382.3767225034245</v>
+        <v>381.3214908478859</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34000,28 +34262,28 @@
         <v>0.0508</v>
       </c>
       <c r="I16" t="n">
-        <v>1.035281790102653</v>
+        <v>1.106418349143009</v>
       </c>
       <c r="J16" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K16" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L16" t="n">
-        <v>0.191698724170312</v>
+        <v>0.1994199279968445</v>
       </c>
       <c r="M16" t="n">
-        <v>12.11347721085385</v>
+        <v>12.38968449469566</v>
       </c>
       <c r="N16" t="n">
-        <v>244.114469522128</v>
+        <v>267.6875932284423</v>
       </c>
       <c r="O16" t="n">
-        <v>15.62416300229001</v>
+        <v>16.36116112103424</v>
       </c>
       <c r="P16" t="n">
-        <v>373.9352594096035</v>
+        <v>373.2227141856696</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34078,28 +34340,28 @@
         <v>0.0489</v>
       </c>
       <c r="I17" t="n">
-        <v>1.279218940956602</v>
+        <v>1.342598400867853</v>
       </c>
       <c r="J17" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K17" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2516996366062414</v>
+        <v>0.2519471445159178</v>
       </c>
       <c r="M17" t="n">
-        <v>12.37975293534836</v>
+        <v>12.57135650280346</v>
       </c>
       <c r="N17" t="n">
-        <v>267.2897402995939</v>
+        <v>296.4774314836422</v>
       </c>
       <c r="O17" t="n">
-        <v>16.34899814360482</v>
+        <v>17.21852001432302</v>
       </c>
       <c r="P17" t="n">
-        <v>366.4802217815316</v>
+        <v>365.8517099512466</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34156,28 +34418,28 @@
         <v>0.0474</v>
       </c>
       <c r="I18" t="n">
-        <v>1.12320734400122</v>
+        <v>1.22571169588291</v>
       </c>
       <c r="J18" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K18" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1499708846805876</v>
+        <v>0.1411791520433755</v>
       </c>
       <c r="M18" t="n">
-        <v>14.16816502050437</v>
+        <v>14.60458950911784</v>
       </c>
       <c r="N18" t="n">
-        <v>394.1814651537832</v>
+        <v>506.5657508322721</v>
       </c>
       <c r="O18" t="n">
-        <v>19.85400375626496</v>
+        <v>22.50701559141665</v>
       </c>
       <c r="P18" t="n">
-        <v>363.089648910436</v>
+        <v>362.0748635103204</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34234,28 +34496,28 @@
         <v>0.0423</v>
       </c>
       <c r="I19" t="n">
-        <v>1.220843414824693</v>
+        <v>1.203785939738059</v>
       </c>
       <c r="J19" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K19" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1632106083973518</v>
+        <v>0.1603848555799927</v>
       </c>
       <c r="M19" t="n">
-        <v>15.67728621595495</v>
+        <v>15.67695523480901</v>
       </c>
       <c r="N19" t="n">
-        <v>421.4742721904817</v>
+        <v>421.0820180984685</v>
       </c>
       <c r="O19" t="n">
-        <v>20.52983858169571</v>
+        <v>20.52028309011522</v>
       </c>
       <c r="P19" t="n">
-        <v>353.6982263931699</v>
+        <v>353.8639309650595</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34312,28 +34574,28 @@
         <v>0.0495</v>
       </c>
       <c r="I20" t="n">
-        <v>1.175062306220696</v>
+        <v>1.191030883998833</v>
       </c>
       <c r="J20" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K20" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L20" t="n">
-        <v>0.138480403236547</v>
+        <v>0.1429022279832652</v>
       </c>
       <c r="M20" t="n">
-        <v>17.04277568571681</v>
+        <v>17.0157006603839</v>
       </c>
       <c r="N20" t="n">
-        <v>485.9292267657315</v>
+        <v>484.2696577252672</v>
       </c>
       <c r="O20" t="n">
-        <v>22.04380245705653</v>
+        <v>22.00612773127674</v>
       </c>
       <c r="P20" t="n">
-        <v>340.301363854902</v>
+        <v>340.1478328180481</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34371,7 +34633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U458"/>
+  <dimension ref="A1:U462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75265,6 +75527,326 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:26+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-42.1103407602959,171.33367600706154</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-42.10969309839614,171.33388880543663</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-42.109036088674344,171.334042806189</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-42.10839122773725,171.33427331982773</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-42.107744676384414,171.33449323544426</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-42.107082345830435,171.33461387147642</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-42.10642046437001,171.33473737716832</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-42.105752330026526,171.33482156766004</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>-42.105088639322126,171.33493849773106</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>-42.104420032917034,171.33504865594472</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>-42.10376659219414,171.33524804197893</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>-42.10310373941451,171.3353728905427</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>-42.102438718323306,171.3354853746457</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>-42.10177327622589,171.33559548949384</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>-42.10110837863999,171.33570875805947</t>
+        </is>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>-42.10050428246512,171.33616986069336</t>
+        </is>
+      </c>
+      <c r="R459" t="inlineStr"/>
+      <c r="S459" t="inlineStr">
+        <is>
+          <t>-42.09923933048348,171.33676750479606</t>
+        </is>
+      </c>
+      <c r="T459" t="inlineStr">
+        <is>
+          <t>-42.09859732932712,171.3370118976217</t>
+        </is>
+      </c>
+      <c r="U459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-42.11034366315856,171.33369427920343</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-42.1097011774785,171.33393965945294</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-42.109058102421045,171.33418137217393</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-42.108400785832984,171.33433348335916</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-42.10775102049252,171.3345331684751</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-42.10709935471906,171.33472093362383</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-42.10642001345953,171.3347345389458</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-42.10577154997665,171.33494254567992</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-42.10508935981514,171.33494298960363</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-42.10440738437978,171.33497352796726</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>-42.103749891557825,171.33515250917662</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>-42.10309245680855,171.3353083509042</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>-42.102447381801014,171.33553493195026</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>-42.101779500011,171.3356310908648</t>
+        </is>
+      </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>-42.10111682484886,171.33575707184463</t>
+        </is>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>-42.10047959815615,171.33602866116792</t>
+        </is>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>-42.099890145688136,171.33657356888043</t>
+        </is>
+      </c>
+      <c r="S460" t="inlineStr">
+        <is>
+          <t>-42.09928834526653,171.33704788490127</t>
+        </is>
+      </c>
+      <c r="T460" t="inlineStr">
+        <is>
+          <t>-42.09857169017081,171.3368652352077</t>
+        </is>
+      </c>
+      <c r="U460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:04+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>-42.10327633018437,171.33636018627263</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>-42.09945897395349,171.33410731013225</t>
+        </is>
+      </c>
+      <c r="S461" t="inlineStr"/>
+      <c r="T461" t="inlineStr"/>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:19:25+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-42.10648888386176,171.33516804413892</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-42.10580799265201,171.3351719327863</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-42.10512580136552,171.33517018393064</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>-42.1044649477374,171.3353154371794</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>-42.10386610614182,171.33581730294785</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>-42.10329060340266,171.33644183781465</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>-42.102077055821006,171.33341669351574</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>-42.10149378911191,171.3339968358988</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>-42.100966075056355,171.33489477612542</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>-42.100290120466795,171.33494484484845</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr"/>
+      <c r="S462" t="inlineStr"/>
+      <c r="T462" t="inlineStr"/>
+      <c r="U462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0381/nzd0381.xlsx
+++ b/data/nzd0381/nzd0381.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U462"/>
+  <dimension ref="A1:U463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28155,7 +28155,7 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>2025-04-03 22:13:04+00:00</t>
+          <t>2025-04-18 22:19:25+00:00</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -28164,77 +28164,162 @@
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr"/>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="H461" t="n">
+        <v>340.8228571428572</v>
+      </c>
+      <c r="I461" t="n">
+        <v>355.3928571428572</v>
+      </c>
+      <c r="J461" t="n">
+        <v>370.45</v>
+      </c>
+      <c r="K461" t="n">
+        <v>373.42</v>
+      </c>
       <c r="L461" t="inlineStr"/>
-      <c r="M461" t="n">
-        <v>317.7018181818182</v>
-      </c>
+      <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="inlineStr"/>
       <c r="Q461" t="inlineStr"/>
-      <c r="R461" t="n">
-        <v>591.5566666666666</v>
-      </c>
+      <c r="R461" t="inlineStr"/>
       <c r="S461" t="inlineStr"/>
       <c r="T461" t="inlineStr"/>
       <c r="U461" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>2025-04-18 22:19:25+00:00</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr"/>
-      <c r="C462" t="inlineStr"/>
-      <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
-      <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+          <t>2025-04-26 22:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>388.425</v>
+      </c>
+      <c r="C462" t="n">
+        <v>377.62</v>
+      </c>
+      <c r="D462" t="n">
+        <v>378.3633333333333</v>
+      </c>
+      <c r="E462" t="n">
+        <v>385.8563636363637</v>
+      </c>
+      <c r="F462" t="n">
+        <v>376.6733333333333</v>
+      </c>
+      <c r="G462" t="n">
+        <v>364.5569230769231</v>
+      </c>
       <c r="H462" t="n">
-        <v>340.8228571428572</v>
+        <v>363.0057142857143</v>
       </c>
       <c r="I462" t="n">
-        <v>355.3928571428572</v>
+        <v>370.3257142857143</v>
       </c>
       <c r="J462" t="n">
-        <v>370.45</v>
+        <v>390.53</v>
       </c>
       <c r="K462" t="n">
-        <v>373.42</v>
+        <v>389.63</v>
       </c>
       <c r="L462" t="n">
-        <v>347.3288888888889</v>
+        <v>397.9422222222223</v>
       </c>
       <c r="M462" t="n">
-        <v>310.7654545454546</v>
+        <v>395.5163636363636</v>
       </c>
       <c r="N462" t="n">
-        <v>584.25</v>
+        <v>401.27</v>
       </c>
       <c r="O462" t="n">
-        <v>551.458888888889</v>
+        <v>397.9622222222222</v>
       </c>
       <c r="P462" t="n">
-        <v>491.6688888888889</v>
-      </c>
-      <c r="Q462" t="n">
-        <v>503.9088888888889</v>
-      </c>
+        <v>390.6222222222222</v>
+      </c>
+      <c r="Q462" t="inlineStr"/>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="inlineStr"/>
-      <c r="T462" t="inlineStr"/>
+      <c r="T462" t="n">
+        <v>356.35</v>
+      </c>
       <c r="U462" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>370.005</v>
+      </c>
+      <c r="C463" t="n">
+        <v>366.87</v>
+      </c>
+      <c r="D463" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="E463" t="n">
+        <v>351.0272727272728</v>
+      </c>
+      <c r="F463" t="n">
+        <v>357.68</v>
+      </c>
+      <c r="G463" t="n">
+        <v>349.0938461538461</v>
+      </c>
+      <c r="H463" t="n">
+        <v>358.8642857142857</v>
+      </c>
+      <c r="I463" t="n">
+        <v>382.2442857142857</v>
+      </c>
+      <c r="J463" t="n">
+        <v>400.38</v>
+      </c>
+      <c r="K463" t="n">
+        <v>393.01</v>
+      </c>
+      <c r="L463" t="n">
+        <v>394.6966666666667</v>
+      </c>
+      <c r="M463" t="n">
+        <v>395.9772727272728</v>
+      </c>
+      <c r="N463" t="n">
+        <v>403.58</v>
+      </c>
+      <c r="O463" t="n">
+        <v>395.1766666666667</v>
+      </c>
+      <c r="P463" t="n">
+        <v>403.6666666666667</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>403.8166666666667</v>
+      </c>
+      <c r="R463" t="n">
+        <v>388.3466666666667</v>
+      </c>
+      <c r="S463" t="n">
+        <v>383.77</v>
+      </c>
+      <c r="T463" t="n">
+        <v>371.64</v>
+      </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -28249,7 +28334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B474"/>
+  <dimension ref="A1:B476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32997,6 +33082,26 @@
       </c>
       <c r="B474" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -33170,28 +33275,28 @@
         <v>0.0941</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.38637870538891</v>
+        <v>-1.380210265143942</v>
       </c>
       <c r="J2" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K2" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4057449935357608</v>
+        <v>0.4054861224966526</v>
       </c>
       <c r="M2" t="n">
-        <v>9.512135144607891</v>
+        <v>9.510323455126008</v>
       </c>
       <c r="N2" t="n">
-        <v>158.1030057896718</v>
+        <v>157.8679461496378</v>
       </c>
       <c r="O2" t="n">
-        <v>12.57390177270651</v>
+        <v>12.5645511718341</v>
       </c>
       <c r="P2" t="n">
-        <v>409.1234899359268</v>
+        <v>409.0644254439807</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33248,28 +33353,28 @@
         <v>0.1173</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.237663125071501</v>
+        <v>-1.234736373125935</v>
       </c>
       <c r="J3" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K3" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3680429704042667</v>
+        <v>0.3692380068469904</v>
       </c>
       <c r="M3" t="n">
-        <v>9.241889089392538</v>
+        <v>9.221211413708643</v>
       </c>
       <c r="N3" t="n">
-        <v>148.8397845661019</v>
+        <v>148.2219664891654</v>
       </c>
       <c r="O3" t="n">
-        <v>12.19999117073869</v>
+        <v>12.17464440914664</v>
       </c>
       <c r="P3" t="n">
-        <v>401.2100704090076</v>
+        <v>401.1818553312598</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33326,28 +33431,28 @@
         <v>0.0887</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.178533891380342</v>
+        <v>-1.177282135363294</v>
       </c>
       <c r="J4" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K4" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3051192981560341</v>
+        <v>0.3063092559356283</v>
       </c>
       <c r="M4" t="n">
-        <v>10.08611425851673</v>
+        <v>10.08337215640672</v>
       </c>
       <c r="N4" t="n">
-        <v>178.0323598386163</v>
+        <v>177.5771893907581</v>
       </c>
       <c r="O4" t="n">
-        <v>13.34287674523812</v>
+        <v>13.32580914581768</v>
       </c>
       <c r="P4" t="n">
-        <v>397.7770777172497</v>
+        <v>397.7649639071805</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33404,28 +33509,28 @@
         <v>0.0669</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.090963804402334</v>
+        <v>-1.090514765874338</v>
       </c>
       <c r="J5" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K5" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2682083174979807</v>
+        <v>0.2684632167222996</v>
       </c>
       <c r="M5" t="n">
-        <v>10.76599085307302</v>
+        <v>10.80373269943374</v>
       </c>
       <c r="N5" t="n">
-        <v>183.1199721129761</v>
+        <v>183.7984343102836</v>
       </c>
       <c r="O5" t="n">
-        <v>13.53218282883349</v>
+        <v>13.5572281204634</v>
       </c>
       <c r="P5" t="n">
-        <v>396.0059307617847</v>
+        <v>396.0018823770084</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33482,28 +33587,28 @@
         <v>0.0853</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9200786555908768</v>
+        <v>-0.9212194395628194</v>
       </c>
       <c r="J6" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K6" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2142211037958397</v>
+        <v>0.2160509451821194</v>
       </c>
       <c r="M6" t="n">
-        <v>10.20366500512588</v>
+        <v>10.19922344295125</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4141918513321</v>
+        <v>174.9448917127736</v>
       </c>
       <c r="O6" t="n">
-        <v>13.24440228365675</v>
+        <v>13.22667349384469</v>
       </c>
       <c r="P6" t="n">
-        <v>391.889756370929</v>
+        <v>391.9009958970327</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33560,28 +33665,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9042881478538903</v>
+        <v>-0.9157588224705554</v>
       </c>
       <c r="J7" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K7" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1780440333754028</v>
+        <v>0.1826505229480118</v>
       </c>
       <c r="M7" t="n">
-        <v>11.63074772148287</v>
+        <v>11.62554407287116</v>
       </c>
       <c r="N7" t="n">
-        <v>212.6071257215637</v>
+        <v>212.4619933521299</v>
       </c>
       <c r="O7" t="n">
-        <v>14.58105365608274</v>
+        <v>14.57607606155134</v>
       </c>
       <c r="P7" t="n">
-        <v>391.4104538755633</v>
+        <v>391.5230533131872</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33638,28 +33743,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6802812237100846</v>
+        <v>-0.6907680384764152</v>
       </c>
       <c r="J8" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K8" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1018400953490954</v>
+        <v>0.1054499904959849</v>
       </c>
       <c r="M8" t="n">
-        <v>12.31437491238673</v>
+        <v>12.29697746240274</v>
       </c>
       <c r="N8" t="n">
-        <v>228.8678645551249</v>
+        <v>228.2108564010405</v>
       </c>
       <c r="O8" t="n">
-        <v>15.1283794424626</v>
+        <v>15.10664941014521</v>
       </c>
       <c r="P8" t="n">
-        <v>388.7066370933417</v>
+        <v>388.8095797653456</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33716,28 +33821,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4217340207008428</v>
+        <v>-0.4223242966029129</v>
       </c>
       <c r="J9" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K9" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04146965923437296</v>
+        <v>0.04197796472261695</v>
       </c>
       <c r="M9" t="n">
-        <v>12.13416887212688</v>
+        <v>12.10011097850904</v>
       </c>
       <c r="N9" t="n">
-        <v>228.411142237163</v>
+        <v>227.3482785834305</v>
       </c>
       <c r="O9" t="n">
-        <v>15.11327701847495</v>
+        <v>15.07807277417875</v>
       </c>
       <c r="P9" t="n">
-        <v>387.7183472885856</v>
+        <v>387.7241040502017</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33794,28 +33899,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2146287153896487</v>
+        <v>-0.2045965465341538</v>
       </c>
       <c r="J10" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K10" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01344037037091106</v>
+        <v>0.01231078569507615</v>
       </c>
       <c r="M10" t="n">
-        <v>11.09673512217167</v>
+        <v>11.09518282117493</v>
       </c>
       <c r="N10" t="n">
-        <v>195.0721762157332</v>
+        <v>194.7206023622698</v>
       </c>
       <c r="O10" t="n">
-        <v>13.96682412775836</v>
+        <v>13.95423241752372</v>
       </c>
       <c r="P10" t="n">
-        <v>390.652085055677</v>
+        <v>390.5551433444393</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33872,28 +33977,28 @@
         <v>0.0527</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02250501836268305</v>
+        <v>0.02396810421876529</v>
       </c>
       <c r="J11" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K11" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001543021671059908</v>
+        <v>0.000176815996188795</v>
       </c>
       <c r="M11" t="n">
-        <v>10.95992546879049</v>
+        <v>10.90950773887643</v>
       </c>
       <c r="N11" t="n">
-        <v>191.4236217382446</v>
+        <v>190.405105442929</v>
       </c>
       <c r="O11" t="n">
-        <v>13.83559256910396</v>
+        <v>13.79873564653403</v>
       </c>
       <c r="P11" t="n">
-        <v>389.2527212462383</v>
+        <v>389.2386188555477</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33950,28 +34055,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2201562012965944</v>
+        <v>0.2458794275348416</v>
       </c>
       <c r="J12" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K12" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01205598705503697</v>
+        <v>0.01545702316182862</v>
       </c>
       <c r="M12" t="n">
-        <v>12.01870962756647</v>
+        <v>11.86491160091461</v>
       </c>
       <c r="N12" t="n">
-        <v>234.5460059905193</v>
+        <v>227.9987192496813</v>
       </c>
       <c r="O12" t="n">
-        <v>15.31489490628386</v>
+        <v>15.09962646060098</v>
       </c>
       <c r="P12" t="n">
-        <v>387.8226050113377</v>
+        <v>387.5792953977369</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34028,28 +34133,28 @@
         <v>0.0604</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3251163754848485</v>
+        <v>0.4121381923633842</v>
       </c>
       <c r="J13" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K13" t="n">
         <v>347</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01993118544234573</v>
+        <v>0.03605745576466468</v>
       </c>
       <c r="M13" t="n">
-        <v>12.87840192364342</v>
+        <v>12.36250406535502</v>
       </c>
       <c r="N13" t="n">
-        <v>296.5123111433474</v>
+        <v>259.092464300002</v>
       </c>
       <c r="O13" t="n">
-        <v>17.21953283754665</v>
+        <v>16.09634940910522</v>
       </c>
       <c r="P13" t="n">
-        <v>385.7141385899827</v>
+        <v>384.8736335869343</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34106,28 +34211,28 @@
         <v>0.053</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7518677124804544</v>
+        <v>0.6498310047210292</v>
       </c>
       <c r="J14" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K14" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08178806804481042</v>
+        <v>0.08525750963023737</v>
       </c>
       <c r="M14" t="n">
-        <v>13.17697829198341</v>
+        <v>12.58863228891572</v>
       </c>
       <c r="N14" t="n">
-        <v>360.8012520351222</v>
+        <v>258.423115815538</v>
       </c>
       <c r="O14" t="n">
-        <v>18.99476907032887</v>
+        <v>16.07554402860251</v>
       </c>
       <c r="P14" t="n">
-        <v>381.5358989936614</v>
+        <v>382.5109482590332</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34184,28 +34289,28 @@
         <v>0.052</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5852596197009405</v>
+        <v>0.5002998682461721</v>
       </c>
       <c r="J15" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K15" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04739457013491266</v>
+        <v>0.04291603837721192</v>
       </c>
       <c r="M15" t="n">
-        <v>13.49640436446981</v>
+        <v>13.02367833724983</v>
       </c>
       <c r="N15" t="n">
-        <v>387.1810553606368</v>
+        <v>314.8734642804981</v>
       </c>
       <c r="O15" t="n">
-        <v>19.67691681541183</v>
+        <v>17.74467425118021</v>
       </c>
       <c r="P15" t="n">
-        <v>381.3214908478859</v>
+        <v>382.1492416665685</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34262,28 +34367,28 @@
         <v>0.0508</v>
       </c>
       <c r="I16" t="n">
-        <v>1.106418349143009</v>
+        <v>1.053051324543103</v>
       </c>
       <c r="J16" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K16" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1994199279968445</v>
+        <v>0.1989286855784675</v>
       </c>
       <c r="M16" t="n">
-        <v>12.38968449469566</v>
+        <v>12.12678390032545</v>
       </c>
       <c r="N16" t="n">
-        <v>267.6875932284423</v>
+        <v>243.9317499876381</v>
       </c>
       <c r="O16" t="n">
-        <v>16.36116112103424</v>
+        <v>15.61831456936497</v>
       </c>
       <c r="P16" t="n">
-        <v>373.2227141856696</v>
+        <v>373.758007675839</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34340,28 +34445,28 @@
         <v>0.0489</v>
       </c>
       <c r="I17" t="n">
-        <v>1.342598400867853</v>
+        <v>1.288729971931601</v>
       </c>
       <c r="J17" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K17" t="n">
         <v>349</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2519471445159178</v>
+        <v>0.2573676462547432</v>
       </c>
       <c r="M17" t="n">
-        <v>12.57135650280346</v>
+        <v>12.31700823629251</v>
       </c>
       <c r="N17" t="n">
-        <v>296.4774314836422</v>
+        <v>265.4988836204696</v>
       </c>
       <c r="O17" t="n">
-        <v>17.21852001432302</v>
+        <v>16.29413647974232</v>
       </c>
       <c r="P17" t="n">
-        <v>365.8517099512466</v>
+        <v>366.3860102039233</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34418,28 +34523,28 @@
         <v>0.0474</v>
       </c>
       <c r="I18" t="n">
-        <v>1.22571169588291</v>
+        <v>1.115944691770142</v>
       </c>
       <c r="J18" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K18" t="n">
         <v>346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1411791520433755</v>
+        <v>0.1496712441409247</v>
       </c>
       <c r="M18" t="n">
-        <v>14.60458950911784</v>
+        <v>14.133003346134</v>
       </c>
       <c r="N18" t="n">
-        <v>506.5657508322721</v>
+        <v>392.2138976910165</v>
       </c>
       <c r="O18" t="n">
-        <v>22.50701559141665</v>
+        <v>19.80439086897188</v>
       </c>
       <c r="P18" t="n">
-        <v>362.0748635103204</v>
+        <v>363.1616062204098</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34496,28 +34601,28 @@
         <v>0.0423</v>
       </c>
       <c r="I19" t="n">
-        <v>1.203785939738059</v>
+        <v>1.203161676878792</v>
       </c>
       <c r="J19" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K19" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1603848555799927</v>
+        <v>0.1610937307523763</v>
       </c>
       <c r="M19" t="n">
-        <v>15.67695523480901</v>
+        <v>15.63325958878507</v>
       </c>
       <c r="N19" t="n">
-        <v>421.0820180984685</v>
+        <v>419.8209413918546</v>
       </c>
       <c r="O19" t="n">
-        <v>20.52028309011522</v>
+        <v>20.48953248348665</v>
       </c>
       <c r="P19" t="n">
-        <v>353.8639309650595</v>
+        <v>353.870043603415</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34574,28 +34679,28 @@
         <v>0.0495</v>
       </c>
       <c r="I20" t="n">
-        <v>1.191030883998833</v>
+        <v>1.183210167166069</v>
       </c>
       <c r="J20" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K20" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1429022279832652</v>
+        <v>0.1426556307970401</v>
       </c>
       <c r="M20" t="n">
-        <v>17.0157006603839</v>
+        <v>16.95970079261455</v>
       </c>
       <c r="N20" t="n">
-        <v>484.2696577252672</v>
+        <v>481.8850500070503</v>
       </c>
       <c r="O20" t="n">
-        <v>22.00612773127674</v>
+        <v>21.95188032964489</v>
       </c>
       <c r="P20" t="n">
-        <v>340.1478328180481</v>
+        <v>340.2233994649639</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34633,7 +34738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U462"/>
+  <dimension ref="A1:U463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75740,7 +75845,7 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>2025-04-03 22:13:04+00:00</t>
+          <t>2025-04-18 22:19:25+00:00</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -75749,101 +75854,240 @@
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr"/>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-42.10648888386176,171.33516804413892</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-42.10580799265201,171.3351719327863</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-42.10512580136552,171.33517018393064</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-42.1044649477374,171.3353154371794</t>
+        </is>
+      </c>
       <c r="L461" t="inlineStr"/>
-      <c r="M461" t="inlineStr">
-        <is>
-          <t>-42.10327633018437,171.33636018627263</t>
-        </is>
-      </c>
+      <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="inlineStr"/>
       <c r="Q461" t="inlineStr"/>
-      <c r="R461" t="inlineStr">
-        <is>
-          <t>-42.09945897395349,171.33410731013225</t>
-        </is>
-      </c>
+      <c r="R461" t="inlineStr"/>
       <c r="S461" t="inlineStr"/>
       <c r="T461" t="inlineStr"/>
       <c r="U461" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>2025-04-18 22:19:25+00:00</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr"/>
-      <c r="C462" t="inlineStr"/>
-      <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
-      <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+          <t>2025-04-26 22:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-42.110320411993186,171.3335479247183</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-42.109687236350304,171.33385190671706</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-42.109032356028294,171.33401931108466</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-42.10836478738107,171.3341068918593</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-42.10772854362493,171.33439168811043</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-42.10709780399349,171.33471117258094</t>
+        </is>
+      </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>-42.10648888386176,171.33516804413892</t>
+          <t>-42.1064472075316,171.33490571087037</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>-42.10580799265201,171.3351719327863</t>
+          <t>-42.105779937361156,171.33499533949154</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>-42.10512580136552,171.33517018393064</t>
+          <t>-42.105087729225446,171.3349328237869</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>-42.1044649477374,171.3353154371794</t>
+          <t>-42.10443276083078,171.33512425571507</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>-42.10386610614182,171.33581730294785</t>
+          <t>-42.10376195288234,171.33522150363083</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>-42.10329060340266,171.33644183781465</t>
+          <t>-42.10311620430453,171.33544419344096</t>
         </is>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>-42.102077055821006,171.33341669351574</t>
+          <t>-42.10245361702246,171.3355705990927</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>-42.10149378911191,171.3339968358988</t>
+          <t>-42.101809669894465,171.3358036699873</t>
         </is>
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>-42.100966075056355,171.33489477612542</t>
-        </is>
-      </c>
-      <c r="Q462" t="inlineStr">
-        <is>
-          <t>-42.100290120466795,171.33494484484845</t>
-        </is>
-      </c>
+          <t>-42.10117401343031,171.33608420386986</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr"/>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="inlineStr"/>
-      <c r="T462" t="inlineStr"/>
+      <c r="T462" t="inlineStr">
+        <is>
+          <t>-42.09864142577275,171.33726414313867</t>
+        </is>
+      </c>
       <c r="U462" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-42.11035502093332,171.3337657711929</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-42.10970743405484,171.33397904175862</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-42.10906836083303,171.33424594435164</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-42.10843022511811,171.3345187905961</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-42.107764228468135,171.3346163064705</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-42.107126855753776,171.334894039844</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-42.10645498833928,171.3349546871531</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-42.10575754500385,171.33485439271772</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-42.10506905322197,171.33481638976198</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-42.10442604939409,171.33508439186963</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>-42.103768631751684,171.33525970891293</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>-42.103115255829515,171.33543876787047</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>-42.102448863438795,171.33554340731018</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>-42.101815402028954,171.335836459386</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>-42.10114717067199,171.33593065629685</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>-42.100496094774805,171.33612302523224</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>-42.09987715443691,171.33649925533936</t>
+        </is>
+      </c>
+      <c r="S463" t="inlineStr">
+        <is>
+          <t>-42.09923579118659,171.33674725906295</t>
+        </is>
+      </c>
+      <c r="T463" t="inlineStr">
+        <is>
+          <t>-42.09860996364249,171.3370841695149</t>
+        </is>
+      </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0381/nzd0381.xlsx
+++ b/data/nzd0381/nzd0381.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -51862,7 +51862,7 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-42.10312464703041,171.33549248851685</t>
+          <t>-42.103124647030405,171.33549248851685</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -64121,7 +64121,7 @@
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>-42.10252111310672,171.33595669932149</t>
+          <t>-42.10252111310671,171.33595669932149</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -70515,7 +70515,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>-42.10704648650845,171.3343881578495</t>
+          <t>-42.107046486508445,171.3343881578495</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">

--- a/data/nzd0381/nzd0381.xlsx
+++ b/data/nzd0381/nzd0381.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U463"/>
+  <dimension ref="A1:U466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28323,6 +28323,197 @@
         </is>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>375.92</v>
+      </c>
+      <c r="C464" t="n">
+        <v>373.39</v>
+      </c>
+      <c r="D464" t="n">
+        <v>372.46</v>
+      </c>
+      <c r="E464" t="n">
+        <v>376.2890909090909</v>
+      </c>
+      <c r="F464" t="n">
+        <v>364.41</v>
+      </c>
+      <c r="G464" t="n">
+        <v>362.7746153846153</v>
+      </c>
+      <c r="H464" t="n">
+        <v>361.17</v>
+      </c>
+      <c r="I464" t="n">
+        <v>358.84</v>
+      </c>
+      <c r="J464" t="n">
+        <v>378.64</v>
+      </c>
+      <c r="K464" t="n">
+        <v>374.64</v>
+      </c>
+      <c r="L464" t="n">
+        <v>373.08</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+      <c r="N464" t="inlineStr"/>
+      <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr"/>
+      <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="inlineStr"/>
+      <c r="S464" t="inlineStr"/>
+      <c r="T464" t="inlineStr"/>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>373.955</v>
+      </c>
+      <c r="C465" t="n">
+        <v>364.18</v>
+      </c>
+      <c r="D465" t="n">
+        <v>364.89</v>
+      </c>
+      <c r="E465" t="n">
+        <v>351.3118181818182</v>
+      </c>
+      <c r="F465" t="n">
+        <v>363.18</v>
+      </c>
+      <c r="G465" t="n">
+        <v>362.2653846153846</v>
+      </c>
+      <c r="H465" t="n">
+        <v>373.0714285714286</v>
+      </c>
+      <c r="I465" t="n">
+        <v>378.2014285714286</v>
+      </c>
+      <c r="J465" t="n">
+        <v>371.34</v>
+      </c>
+      <c r="K465" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="L465" t="n">
+        <v>383.5166666666667</v>
+      </c>
+      <c r="M465" t="n">
+        <v>396.5118181818182</v>
+      </c>
+      <c r="N465" t="n">
+        <v>398.24</v>
+      </c>
+      <c r="O465" t="n">
+        <v>426.2766666666667</v>
+      </c>
+      <c r="P465" t="n">
+        <v>420.1466666666667</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>376.1866666666667</v>
+      </c>
+      <c r="R465" t="n">
+        <v>369.1266666666667</v>
+      </c>
+      <c r="S465" t="n">
+        <v>370.78</v>
+      </c>
+      <c r="T465" t="n">
+        <v>350.64</v>
+      </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:42+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>382.845</v>
+      </c>
+      <c r="C466" t="n">
+        <v>374.77</v>
+      </c>
+      <c r="D466" t="n">
+        <v>374.22</v>
+      </c>
+      <c r="E466" t="n">
+        <v>379.2090909090909</v>
+      </c>
+      <c r="F466" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="G466" t="n">
+        <v>362.9276923076923</v>
+      </c>
+      <c r="H466" t="n">
+        <v>367.8657142857143</v>
+      </c>
+      <c r="I466" t="n">
+        <v>377.4157142857143</v>
+      </c>
+      <c r="J466" t="n">
+        <v>388.64</v>
+      </c>
+      <c r="K466" t="n">
+        <v>390.73</v>
+      </c>
+      <c r="L466" t="n">
+        <v>395.9366666666667</v>
+      </c>
+      <c r="M466" t="n">
+        <v>405.2690909090909</v>
+      </c>
+      <c r="N466" t="n">
+        <v>414.9500000000001</v>
+      </c>
+      <c r="O466" t="n">
+        <v>401.7866666666667</v>
+      </c>
+      <c r="P466" t="n">
+        <v>386.1666666666667</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>358.2966666666667</v>
+      </c>
+      <c r="R466" t="n">
+        <v>333.5766666666667</v>
+      </c>
+      <c r="S466" t="n">
+        <v>334.36</v>
+      </c>
+      <c r="T466" t="n">
+        <v>362.77</v>
+      </c>
+      <c r="U466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28334,7 +28525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B476"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33102,6 +33293,36 @@
       </c>
       <c r="B476" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -33275,28 +33496,28 @@
         <v>0.0941</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.380210265143942</v>
+        <v>-1.373136184928415</v>
       </c>
       <c r="J2" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K2" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4054861224966526</v>
+        <v>0.4070022420931056</v>
       </c>
       <c r="M2" t="n">
-        <v>9.510323455126008</v>
+        <v>9.467092407395945</v>
       </c>
       <c r="N2" t="n">
-        <v>157.8679461496378</v>
+        <v>156.828831087685</v>
       </c>
       <c r="O2" t="n">
-        <v>12.5645511718341</v>
+        <v>12.52313184022611</v>
       </c>
       <c r="P2" t="n">
-        <v>409.0644254439807</v>
+        <v>408.9955766867458</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33353,28 +33574,28 @@
         <v>0.1173</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.234736373125935</v>
+        <v>-1.232144339943108</v>
       </c>
       <c r="J3" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K3" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3692380068469904</v>
+        <v>0.3719495720786027</v>
       </c>
       <c r="M3" t="n">
-        <v>9.221211413708643</v>
+        <v>9.186894453019635</v>
       </c>
       <c r="N3" t="n">
-        <v>148.2219664891654</v>
+        <v>147.2133858908392</v>
       </c>
       <c r="O3" t="n">
-        <v>12.17464440914664</v>
+        <v>12.13315234763164</v>
       </c>
       <c r="P3" t="n">
-        <v>401.1818553312598</v>
+        <v>401.15643539235</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33431,28 +33652,28 @@
         <v>0.0887</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.177282135363294</v>
+        <v>-1.172314709527992</v>
       </c>
       <c r="J4" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K4" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3063092559356283</v>
+        <v>0.3076890656176549</v>
       </c>
       <c r="M4" t="n">
-        <v>10.08337215640672</v>
+        <v>10.0423447903503</v>
       </c>
       <c r="N4" t="n">
-        <v>177.5771893907581</v>
+        <v>176.3843910109351</v>
       </c>
       <c r="O4" t="n">
-        <v>13.32580914581768</v>
+        <v>13.28097854116688</v>
       </c>
       <c r="P4" t="n">
-        <v>397.7649639071805</v>
+        <v>397.7155484716509</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33509,28 +33730,28 @@
         <v>0.0669</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.090514765874338</v>
+        <v>-1.088490952257928</v>
       </c>
       <c r="J5" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2684632167222996</v>
+        <v>0.2697670846159074</v>
       </c>
       <c r="M5" t="n">
-        <v>10.80373269943374</v>
+        <v>10.8154519471485</v>
       </c>
       <c r="N5" t="n">
-        <v>183.7984343102836</v>
+        <v>183.5826134917039</v>
       </c>
       <c r="O5" t="n">
-        <v>13.5572281204634</v>
+        <v>13.54926616063408</v>
       </c>
       <c r="P5" t="n">
-        <v>396.0018823770084</v>
+        <v>395.9819172124685</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33587,28 +33808,28 @@
         <v>0.0853</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9212194395628194</v>
+        <v>-0.9249499456780091</v>
       </c>
       <c r="J6" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K6" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2160509451821194</v>
+        <v>0.220269522042624</v>
       </c>
       <c r="M6" t="n">
-        <v>10.19922344295125</v>
+        <v>10.1404317442963</v>
       </c>
       <c r="N6" t="n">
-        <v>174.9448917127736</v>
+        <v>173.6041833902774</v>
       </c>
       <c r="O6" t="n">
-        <v>13.22667349384469</v>
+        <v>13.1758940262237</v>
       </c>
       <c r="P6" t="n">
-        <v>391.9009958970327</v>
+        <v>391.9376683847184</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33665,28 +33886,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9157588224705554</v>
+        <v>-0.9234566544921438</v>
       </c>
       <c r="J7" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K7" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1826505229480118</v>
+        <v>0.187513507941399</v>
       </c>
       <c r="M7" t="n">
-        <v>11.62554407287116</v>
+        <v>11.5693074705924</v>
       </c>
       <c r="N7" t="n">
-        <v>212.4619933521299</v>
+        <v>210.9483469081149</v>
       </c>
       <c r="O7" t="n">
-        <v>14.57607606155134</v>
+        <v>14.52406096476171</v>
       </c>
       <c r="P7" t="n">
-        <v>391.5230533131872</v>
+        <v>391.5995724197373</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33743,28 +33964,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6907680384764152</v>
+        <v>-0.6961109138642076</v>
       </c>
       <c r="J8" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K8" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1054499904959849</v>
+        <v>0.108391038388156</v>
       </c>
       <c r="M8" t="n">
-        <v>12.29697746240274</v>
+        <v>12.2343708575125</v>
       </c>
       <c r="N8" t="n">
-        <v>228.2108564010405</v>
+        <v>226.650270845988</v>
       </c>
       <c r="O8" t="n">
-        <v>15.10664941014521</v>
+        <v>15.05490852997746</v>
       </c>
       <c r="P8" t="n">
-        <v>388.8095797653456</v>
+        <v>388.8626920736931</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33821,28 +34042,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4223242966029129</v>
+        <v>-0.430434301740695</v>
       </c>
       <c r="J9" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K9" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04197796472261695</v>
+        <v>0.04406601514316744</v>
       </c>
       <c r="M9" t="n">
-        <v>12.10011097850904</v>
+        <v>12.05562978465662</v>
       </c>
       <c r="N9" t="n">
-        <v>227.3482785834305</v>
+        <v>226.3612305200807</v>
       </c>
       <c r="O9" t="n">
-        <v>15.07807277417875</v>
+        <v>15.04530592976031</v>
       </c>
       <c r="P9" t="n">
-        <v>387.7241040502017</v>
+        <v>387.8057008012367</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33899,28 +34120,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2045965465341538</v>
+        <v>-0.2129006665457034</v>
       </c>
       <c r="J10" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K10" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01231078569507615</v>
+        <v>0.01348269888292153</v>
       </c>
       <c r="M10" t="n">
-        <v>11.09518282117493</v>
+        <v>11.0677639130251</v>
       </c>
       <c r="N10" t="n">
-        <v>194.7206023622698</v>
+        <v>193.8264047198651</v>
       </c>
       <c r="O10" t="n">
-        <v>13.95423241752372</v>
+        <v>13.92215517511082</v>
       </c>
       <c r="P10" t="n">
-        <v>390.5551433444393</v>
+        <v>390.6364103604781</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33977,28 +34198,28 @@
         <v>0.0527</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02396810421876529</v>
+        <v>0.01216253098661932</v>
       </c>
       <c r="J11" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K11" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000176815996188795</v>
+        <v>4.605611586405711e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>10.90950773887643</v>
+        <v>10.88994067117724</v>
       </c>
       <c r="N11" t="n">
-        <v>190.405105442929</v>
+        <v>189.7326746918565</v>
       </c>
       <c r="O11" t="n">
-        <v>13.79873564653403</v>
+        <v>13.7743484307555</v>
       </c>
       <c r="P11" t="n">
-        <v>389.2386188555477</v>
+        <v>389.3537442743036</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34055,28 +34276,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2458794275348416</v>
+        <v>0.2312472661712055</v>
       </c>
       <c r="J12" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K12" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01545702316182862</v>
+        <v>0.01383152545082345</v>
       </c>
       <c r="M12" t="n">
-        <v>11.86491160091461</v>
+        <v>11.86255984509458</v>
       </c>
       <c r="N12" t="n">
-        <v>227.9987192496813</v>
+        <v>227.6086639381859</v>
       </c>
       <c r="O12" t="n">
-        <v>15.09962646060098</v>
+        <v>15.08670487343694</v>
       </c>
       <c r="P12" t="n">
-        <v>387.5792953977369</v>
+        <v>387.7199938548852</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34133,28 +34354,28 @@
         <v>0.0604</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4121381923633842</v>
+        <v>0.4178998303334654</v>
       </c>
       <c r="J13" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K13" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03605745576466468</v>
+        <v>0.03742521248935038</v>
       </c>
       <c r="M13" t="n">
-        <v>12.36250406535502</v>
+        <v>12.3181588828937</v>
       </c>
       <c r="N13" t="n">
-        <v>259.092464300002</v>
+        <v>257.8759333306689</v>
       </c>
       <c r="O13" t="n">
-        <v>16.09634940910522</v>
+        <v>16.05851591308079</v>
       </c>
       <c r="P13" t="n">
-        <v>384.8736335869343</v>
+        <v>384.8169420906364</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34211,28 +34432,28 @@
         <v>0.053</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6498310047210292</v>
+        <v>0.6580878994872116</v>
       </c>
       <c r="J14" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K14" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08525750963023737</v>
+        <v>0.08805386468707221</v>
       </c>
       <c r="M14" t="n">
-        <v>12.58863228891572</v>
+        <v>12.56301241122369</v>
       </c>
       <c r="N14" t="n">
-        <v>258.423115815538</v>
+        <v>257.6047851687447</v>
       </c>
       <c r="O14" t="n">
-        <v>16.07554402860251</v>
+        <v>16.05007118889959</v>
       </c>
       <c r="P14" t="n">
-        <v>382.5109482590332</v>
+        <v>382.4306664832532</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34289,28 +34510,28 @@
         <v>0.052</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5002998682461721</v>
+        <v>0.521306238663563</v>
       </c>
       <c r="J15" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K15" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04291603837721192</v>
+        <v>0.04655489104542165</v>
       </c>
       <c r="M15" t="n">
-        <v>13.02367833724983</v>
+        <v>13.0500610528569</v>
       </c>
       <c r="N15" t="n">
-        <v>314.8734642804981</v>
+        <v>315.9542910357713</v>
       </c>
       <c r="O15" t="n">
-        <v>17.74467425118021</v>
+        <v>17.77510312306996</v>
       </c>
       <c r="P15" t="n">
-        <v>382.1492416665685</v>
+        <v>381.9411631937961</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34367,28 +34588,28 @@
         <v>0.0508</v>
       </c>
       <c r="I16" t="n">
-        <v>1.053051324543103</v>
+        <v>1.055256923759819</v>
       </c>
       <c r="J16" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K16" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1989286855784675</v>
+        <v>0.2003806945518628</v>
       </c>
       <c r="M16" t="n">
-        <v>12.12678390032545</v>
+        <v>12.15441638331092</v>
       </c>
       <c r="N16" t="n">
-        <v>243.9317499876381</v>
+        <v>244.2104562988129</v>
       </c>
       <c r="O16" t="n">
-        <v>15.61831456936497</v>
+        <v>15.62723444179465</v>
       </c>
       <c r="P16" t="n">
-        <v>373.758007675839</v>
+        <v>373.7356132953834</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34445,28 +34666,28 @@
         <v>0.0489</v>
       </c>
       <c r="I17" t="n">
-        <v>1.288729971931601</v>
+        <v>1.25311053989414</v>
       </c>
       <c r="J17" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K17" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2573676462547432</v>
+        <v>0.2445314341264603</v>
       </c>
       <c r="M17" t="n">
-        <v>12.31700823629251</v>
+        <v>12.45610340067318</v>
       </c>
       <c r="N17" t="n">
-        <v>265.4988836204696</v>
+        <v>270.4056093504698</v>
       </c>
       <c r="O17" t="n">
-        <v>16.29413647974232</v>
+        <v>16.44401439279563</v>
       </c>
       <c r="P17" t="n">
-        <v>366.3860102039233</v>
+        <v>366.7454165559022</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34523,28 +34744,28 @@
         <v>0.0474</v>
       </c>
       <c r="I18" t="n">
-        <v>1.115944691770142</v>
+        <v>1.071066699308601</v>
       </c>
       <c r="J18" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K18" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1496712441409247</v>
+        <v>0.1375512336482001</v>
       </c>
       <c r="M18" t="n">
-        <v>14.133003346134</v>
+        <v>14.33309504283588</v>
       </c>
       <c r="N18" t="n">
-        <v>392.2138976910165</v>
+        <v>401.1812720473171</v>
       </c>
       <c r="O18" t="n">
-        <v>19.80439086897188</v>
+        <v>20.02951003013596</v>
       </c>
       <c r="P18" t="n">
-        <v>363.1616062204098</v>
+        <v>363.6144705197191</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34601,28 +34822,28 @@
         <v>0.0423</v>
       </c>
       <c r="I19" t="n">
-        <v>1.203161676878792</v>
+        <v>1.165147228454202</v>
       </c>
       <c r="J19" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K19" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1610937307523763</v>
+        <v>0.1517652009979306</v>
       </c>
       <c r="M19" t="n">
-        <v>15.63325958878507</v>
+        <v>15.74366244619419</v>
       </c>
       <c r="N19" t="n">
-        <v>419.8209413918546</v>
+        <v>425.5091840012366</v>
       </c>
       <c r="O19" t="n">
-        <v>20.48953248348665</v>
+        <v>20.62787395737226</v>
       </c>
       <c r="P19" t="n">
-        <v>353.870043603415</v>
+        <v>354.2468205875998</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34679,28 +34900,28 @@
         <v>0.0495</v>
       </c>
       <c r="I20" t="n">
-        <v>1.183210167166069</v>
+        <v>1.166545385114755</v>
       </c>
       <c r="J20" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K20" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1426556307970401</v>
+        <v>0.1403974622062106</v>
       </c>
       <c r="M20" t="n">
-        <v>16.95970079261455</v>
+        <v>16.94716719575022</v>
       </c>
       <c r="N20" t="n">
-        <v>481.8850500070503</v>
+        <v>480.3593583794942</v>
       </c>
       <c r="O20" t="n">
-        <v>21.95188032964489</v>
+        <v>21.91710196124237</v>
       </c>
       <c r="P20" t="n">
-        <v>340.2233994649639</v>
+        <v>340.3870385583664</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34738,7 +34959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U463"/>
+  <dimension ref="A1:U466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76091,6 +76312,295 @@
         </is>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-42.11034390741224,171.33369581666526</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-42.10969518392883,171.33390193286746</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-42.10904344748436,171.33408912624384</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-42.108382762750026,171.3342200370592</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-42.107751584134235,171.33453671632623</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-42.10710115257694,171.33473225024824</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-42.10645065642614,171.33492741991446</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-42.10580151631344,171.33513116747753</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-42.105110272996605,171.33507337216255</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-42.10446252529148,171.3353010484378</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>-42.1038131153069,171.3355141712168</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr"/>
+      <c r="N464" t="inlineStr"/>
+      <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr"/>
+      <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="inlineStr"/>
+      <c r="S464" t="inlineStr"/>
+      <c r="T464" t="inlineStr"/>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-42.11034759939815,171.33371905599407</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-42.109712488156276,171.33401085509865</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-42.10905767028936,171.334178652101</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-42.10842969051318,171.33451542547698</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-42.107753895064135,171.33455126251653</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-42.10710210931436,171.33473827243932</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-42.106428296244545,171.3347866743972</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-42.10576514065668,171.3349022027707</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-42.10512411391543,171.33515966347971</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-42.104451683831364,171.3352366529363</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-42.10379163842807,171.3353913151219</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>-42.10311415582268,171.33543247549304</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>-42.10245985223292,171.33560626624245</t>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>-42.10175140371876,171.33547037466766</t>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>-42.10111325796289,171.33573666862023</t>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>-42.1005529509314,171.33644825794516</t>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>-42.09991670421192,171.33672549191033</t>
+        </is>
+      </c>
+      <c r="S465" t="inlineStr">
+        <is>
+          <t>-42.0992625210216,171.33690016148964</t>
+        </is>
+      </c>
+      <c r="T465" t="inlineStr">
+        <is>
+          <t>-42.098653175129755,171.33733135374192</t>
+        </is>
+      </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:42+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-42.11033089617791,171.33361391727217</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-42.10969259110416,171.33388561227792</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-42.10904014071926,171.33406831178377</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-42.108377276550705,171.33418550432853</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-42.107742678582454,171.3344806602862</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-42.10710086497756,171.33473043995218</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-42.106438076664304,171.33484823682164</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-42.10576661684133,171.33491149447852</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-42.10509131272949,171.33495516494304</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-42.104430576636915,171.33511128227326</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-42.10376608001808,171.33524511216604</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>-42.10309613474373,171.33532938968938</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>-42.10242546583662,171.33540956729985</t>
+        </is>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>-42.101801799912494,171.33575865160475</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>-42.10118318199196,171.33613665072957</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>-42.100589763931616,171.33665884144912</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>-42.09998985572806,171.33714394794737</t>
+        </is>
+      </c>
+      <c r="S466" t="inlineStr">
+        <is>
+          <t>-42.09933746225514,171.33732885399996</t>
+        </is>
+      </c>
+      <c r="T466" t="inlineStr">
+        <is>
+          <t>-42.09862821541593,171.33718857538116</t>
+        </is>
+      </c>
+      <c r="U466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0381/nzd0381.xlsx
+++ b/data/nzd0381/nzd0381.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U466"/>
+  <dimension ref="A1:U469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28514,6 +28514,183 @@
         </is>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>381.335</v>
+      </c>
+      <c r="C467" t="n">
+        <v>375.89</v>
+      </c>
+      <c r="D467" t="n">
+        <v>380.6</v>
+      </c>
+      <c r="E467" t="n">
+        <v>373.1618181818182</v>
+      </c>
+      <c r="F467" t="n">
+        <v>375.66</v>
+      </c>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr"/>
+      <c r="N467" t="inlineStr"/>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
+      <c r="Q467" t="inlineStr"/>
+      <c r="R467" t="inlineStr"/>
+      <c r="S467" t="inlineStr"/>
+      <c r="T467" t="inlineStr"/>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:32+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>360.21</v>
+      </c>
+      <c r="C468" t="n">
+        <v>351.62</v>
+      </c>
+      <c r="D468" t="n">
+        <v>353.6833333333333</v>
+      </c>
+      <c r="E468" t="n">
+        <v>358.699090909091</v>
+      </c>
+      <c r="F468" t="n">
+        <v>359.2933333333333</v>
+      </c>
+      <c r="G468" t="n">
+        <v>344.0115384615385</v>
+      </c>
+      <c r="H468" t="n">
+        <v>343.7757142857143</v>
+      </c>
+      <c r="I468" t="n">
+        <v>361.9857142857143</v>
+      </c>
+      <c r="J468" t="n">
+        <v>362.49</v>
+      </c>
+      <c r="K468" t="n">
+        <v>368.42</v>
+      </c>
+      <c r="L468" t="n">
+        <v>379.3955555555555</v>
+      </c>
+      <c r="M468" t="n">
+        <v>371.579090909091</v>
+      </c>
+      <c r="N468" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="O468" t="n">
+        <v>381.4555555555555</v>
+      </c>
+      <c r="P468" t="n">
+        <v>393.5555555555555</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>371.9155555555556</v>
+      </c>
+      <c r="R468" t="n">
+        <v>338.5955555555556</v>
+      </c>
+      <c r="S468" t="n">
+        <v>303.78</v>
+      </c>
+      <c r="T468" t="n">
+        <v>341.73</v>
+      </c>
+      <c r="U468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>376.955</v>
+      </c>
+      <c r="C469" t="n">
+        <v>371.28</v>
+      </c>
+      <c r="D469" t="n">
+        <v>365.94</v>
+      </c>
+      <c r="E469" t="n">
+        <v>369.4281818181818</v>
+      </c>
+      <c r="F469" t="n">
+        <v>364.04</v>
+      </c>
+      <c r="G469" t="n">
+        <v>351.9246153846154</v>
+      </c>
+      <c r="H469" t="n">
+        <v>343.6185714285714</v>
+      </c>
+      <c r="I469" t="n">
+        <v>357.1285714285714</v>
+      </c>
+      <c r="J469" t="n">
+        <v>381.17</v>
+      </c>
+      <c r="K469" t="n">
+        <v>382.47</v>
+      </c>
+      <c r="L469" t="n">
+        <v>391.2433333333333</v>
+      </c>
+      <c r="M469" t="n">
+        <v>391.6781818181818</v>
+      </c>
+      <c r="N469" t="n">
+        <v>404.83</v>
+      </c>
+      <c r="O469" t="n">
+        <v>399.6333333333333</v>
+      </c>
+      <c r="P469" t="n">
+        <v>386.0033333333333</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>368.1433333333333</v>
+      </c>
+      <c r="R469" t="n">
+        <v>321.7233333333333</v>
+      </c>
+      <c r="S469" t="inlineStr"/>
+      <c r="T469" t="n">
+        <v>337.73</v>
+      </c>
+      <c r="U469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28525,7 +28702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B479"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33323,6 +33500,36 @@
       </c>
       <c r="B479" t="n">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -33496,28 +33703,28 @@
         <v>0.0941</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.373136184928415</v>
+        <v>-1.373804557445334</v>
       </c>
       <c r="J2" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4070022420931056</v>
+        <v>0.4105017107544565</v>
       </c>
       <c r="M2" t="n">
-        <v>9.467092407395945</v>
+        <v>9.45727390764768</v>
       </c>
       <c r="N2" t="n">
-        <v>156.828831087685</v>
+        <v>156.216860550037</v>
       </c>
       <c r="O2" t="n">
-        <v>12.52313184022611</v>
+        <v>12.49867435170774</v>
       </c>
       <c r="P2" t="n">
-        <v>408.9955766867458</v>
+        <v>409.0021662505923</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33574,28 +33781,28 @@
         <v>0.1173</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.232144339943108</v>
+        <v>-1.236442324375846</v>
       </c>
       <c r="J3" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K3" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3719495720786027</v>
+        <v>0.3759884557782508</v>
       </c>
       <c r="M3" t="n">
-        <v>9.186894453019635</v>
+        <v>9.183215017355236</v>
       </c>
       <c r="N3" t="n">
-        <v>147.2133858908392</v>
+        <v>146.9783315181353</v>
       </c>
       <c r="O3" t="n">
-        <v>12.13315234763164</v>
+        <v>12.12346202691852</v>
       </c>
       <c r="P3" t="n">
-        <v>401.15643539235</v>
+        <v>401.198775544955</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33652,28 +33859,28 @@
         <v>0.0887</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.172314709527992</v>
+        <v>-1.17300520849139</v>
       </c>
       <c r="J4" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K4" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3076890656176549</v>
+        <v>0.3101656738295993</v>
       </c>
       <c r="M4" t="n">
-        <v>10.0423447903503</v>
+        <v>10.03691474495959</v>
       </c>
       <c r="N4" t="n">
-        <v>176.3843910109351</v>
+        <v>175.9466009750163</v>
       </c>
       <c r="O4" t="n">
-        <v>13.28097854116688</v>
+        <v>13.26448645726687</v>
       </c>
       <c r="P4" t="n">
-        <v>397.7155484716509</v>
+        <v>397.7225900518274</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33730,28 +33937,28 @@
         <v>0.0669</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.088490952257928</v>
+        <v>-1.089360417111008</v>
       </c>
       <c r="J5" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K5" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2697670846159074</v>
+        <v>0.2731553184012804</v>
       </c>
       <c r="M5" t="n">
-        <v>10.8154519471485</v>
+        <v>10.77001120309717</v>
       </c>
       <c r="N5" t="n">
-        <v>183.5826134917039</v>
+        <v>182.3568484789025</v>
       </c>
       <c r="O5" t="n">
-        <v>13.54926616063408</v>
+        <v>13.50395677121719</v>
       </c>
       <c r="P5" t="n">
-        <v>395.9819172124685</v>
+        <v>395.9905681073802</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33808,28 +34015,28 @@
         <v>0.0853</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9249499456780091</v>
+        <v>-0.9273064912789085</v>
       </c>
       <c r="J6" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K6" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L6" t="n">
-        <v>0.220269522042624</v>
+        <v>0.2236554971656005</v>
       </c>
       <c r="M6" t="n">
-        <v>10.1404317442963</v>
+        <v>10.1116498497428</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6041833902774</v>
+        <v>172.5877079084838</v>
       </c>
       <c r="O6" t="n">
-        <v>13.1758940262237</v>
+        <v>13.13726409525529</v>
       </c>
       <c r="P6" t="n">
-        <v>391.9376683847184</v>
+        <v>391.9610356162044</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33886,28 +34093,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9234566544921438</v>
+        <v>-0.943046783298651</v>
       </c>
       <c r="J7" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K7" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L7" t="n">
-        <v>0.187513507941399</v>
+        <v>0.1941287370070457</v>
       </c>
       <c r="M7" t="n">
-        <v>11.5693074705924</v>
+        <v>11.6038311021599</v>
       </c>
       <c r="N7" t="n">
-        <v>210.9483469081149</v>
+        <v>211.922605082605</v>
       </c>
       <c r="O7" t="n">
-        <v>14.52406096476171</v>
+        <v>14.55756178357506</v>
       </c>
       <c r="P7" t="n">
-        <v>391.5995724197373</v>
+        <v>391.7950564980752</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33964,28 +34171,28 @@
         <v>0.0789</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6961109138642076</v>
+        <v>-0.723419685514341</v>
       </c>
       <c r="J8" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K8" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L8" t="n">
-        <v>0.108391038388156</v>
+        <v>0.1154397161053951</v>
       </c>
       <c r="M8" t="n">
-        <v>12.2343708575125</v>
+        <v>12.29756151780276</v>
       </c>
       <c r="N8" t="n">
-        <v>226.650270845988</v>
+        <v>229.2959116331567</v>
       </c>
       <c r="O8" t="n">
-        <v>15.05490852997746</v>
+        <v>15.14251998952475</v>
       </c>
       <c r="P8" t="n">
-        <v>388.8626920736931</v>
+        <v>389.1354166821878</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34042,28 +34249,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.430434301740695</v>
+        <v>-0.447803807190789</v>
       </c>
       <c r="J9" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K9" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04406601514316744</v>
+        <v>0.04769828107367224</v>
       </c>
       <c r="M9" t="n">
-        <v>12.05562978465662</v>
+        <v>12.08139363182823</v>
       </c>
       <c r="N9" t="n">
-        <v>226.3612305200807</v>
+        <v>226.7152600334811</v>
       </c>
       <c r="O9" t="n">
-        <v>15.04530592976031</v>
+        <v>15.05706678053468</v>
       </c>
       <c r="P9" t="n">
-        <v>387.8057008012367</v>
+        <v>387.9813889778693</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34120,28 +34327,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2129006665457034</v>
+        <v>-0.2256752562767003</v>
       </c>
       <c r="J10" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K10" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01348269888292153</v>
+        <v>0.01517480460304999</v>
       </c>
       <c r="M10" t="n">
-        <v>11.0677639130251</v>
+        <v>11.07499416330491</v>
       </c>
       <c r="N10" t="n">
-        <v>193.8264047198651</v>
+        <v>194.1765286705919</v>
       </c>
       <c r="O10" t="n">
-        <v>13.92215517511082</v>
+        <v>13.93472384622645</v>
       </c>
       <c r="P10" t="n">
-        <v>390.6364103604781</v>
+        <v>390.7619702082615</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34198,28 +34405,28 @@
         <v>0.0527</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01216253098661932</v>
+        <v>-0.001660409412870553</v>
       </c>
       <c r="J11" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K11" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L11" t="n">
-        <v>4.605611586405711e-05</v>
+        <v>8.613638590171391e-07</v>
       </c>
       <c r="M11" t="n">
-        <v>10.88994067117724</v>
+        <v>10.90744496956094</v>
       </c>
       <c r="N11" t="n">
-        <v>189.7326746918565</v>
+        <v>190.0495954380879</v>
       </c>
       <c r="O11" t="n">
-        <v>13.7743484307555</v>
+        <v>13.78584765032923</v>
       </c>
       <c r="P11" t="n">
-        <v>389.3537442743036</v>
+        <v>389.4891720304578</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34276,28 +34483,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2312472661712055</v>
+        <v>0.2229189889363706</v>
       </c>
       <c r="J12" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K12" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01383152545082345</v>
+        <v>0.01297207998867023</v>
       </c>
       <c r="M12" t="n">
-        <v>11.86255984509458</v>
+        <v>11.84539885471203</v>
       </c>
       <c r="N12" t="n">
-        <v>227.6086639381859</v>
+        <v>226.9381183572501</v>
       </c>
       <c r="O12" t="n">
-        <v>15.08670487343694</v>
+        <v>15.06446541890054</v>
       </c>
       <c r="P12" t="n">
-        <v>387.7199938548852</v>
+        <v>387.8004487764824</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34354,28 +34561,28 @@
         <v>0.0604</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4178998303334654</v>
+        <v>0.4028132889571867</v>
       </c>
       <c r="J13" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K13" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03742521248935038</v>
+        <v>0.03504143130866721</v>
       </c>
       <c r="M13" t="n">
-        <v>12.3181588828937</v>
+        <v>12.33721310611184</v>
       </c>
       <c r="N13" t="n">
-        <v>257.8759333306689</v>
+        <v>258.0908812821808</v>
       </c>
       <c r="O13" t="n">
-        <v>16.05851591308079</v>
+        <v>16.06520716586564</v>
       </c>
       <c r="P13" t="n">
-        <v>384.8169420906364</v>
+        <v>384.9657608589915</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34432,28 +34639,28 @@
         <v>0.053</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6580878994872116</v>
+        <v>0.6500550602851921</v>
       </c>
       <c r="J14" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K14" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08805386468707221</v>
+        <v>0.08673716475688542</v>
       </c>
       <c r="M14" t="n">
-        <v>12.56301241122369</v>
+        <v>12.56224396025095</v>
       </c>
       <c r="N14" t="n">
-        <v>257.6047851687447</v>
+        <v>257.278808944652</v>
       </c>
       <c r="O14" t="n">
-        <v>16.05007118889959</v>
+        <v>16.03991299679185</v>
       </c>
       <c r="P14" t="n">
-        <v>382.4306664832532</v>
+        <v>382.50890543816</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34510,28 +34717,28 @@
         <v>0.052</v>
       </c>
       <c r="I15" t="n">
-        <v>0.521306238663563</v>
+        <v>0.5158379927404002</v>
       </c>
       <c r="J15" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K15" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04655489104542165</v>
+        <v>0.04606969004033978</v>
       </c>
       <c r="M15" t="n">
-        <v>13.0500610528569</v>
+        <v>13.02859848976943</v>
       </c>
       <c r="N15" t="n">
-        <v>315.9542910357713</v>
+        <v>314.7421003899665</v>
       </c>
       <c r="O15" t="n">
-        <v>17.77510312306996</v>
+        <v>17.74097236314759</v>
       </c>
       <c r="P15" t="n">
-        <v>381.9411631937961</v>
+        <v>381.9954742239863</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34588,28 +34795,28 @@
         <v>0.0508</v>
       </c>
       <c r="I16" t="n">
-        <v>1.055256923759819</v>
+        <v>1.042871549777413</v>
       </c>
       <c r="J16" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K16" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2003806945518628</v>
+        <v>0.197937083320791</v>
       </c>
       <c r="M16" t="n">
-        <v>12.15441638331092</v>
+        <v>12.14923879950199</v>
       </c>
       <c r="N16" t="n">
-        <v>244.2104562988129</v>
+        <v>243.6413072692667</v>
       </c>
       <c r="O16" t="n">
-        <v>15.62723444179465</v>
+        <v>15.60901365459287</v>
       </c>
       <c r="P16" t="n">
-        <v>373.7356132953834</v>
+        <v>373.862359605166</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34666,28 +34873,28 @@
         <v>0.0489</v>
       </c>
       <c r="I17" t="n">
-        <v>1.25311053989414</v>
+        <v>1.22141448216986</v>
       </c>
       <c r="J17" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K17" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2445314341264603</v>
+        <v>0.2340928443391265</v>
       </c>
       <c r="M17" t="n">
-        <v>12.45610340067318</v>
+        <v>12.57297763376992</v>
       </c>
       <c r="N17" t="n">
-        <v>270.4056093504698</v>
+        <v>273.6951587905452</v>
       </c>
       <c r="O17" t="n">
-        <v>16.44401439279563</v>
+        <v>16.5437347292123</v>
       </c>
       <c r="P17" t="n">
-        <v>366.7454165559022</v>
+        <v>367.0662542472986</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34744,28 +34951,28 @@
         <v>0.0474</v>
       </c>
       <c r="I18" t="n">
-        <v>1.071066699308601</v>
+        <v>1.00435022243175</v>
       </c>
       <c r="J18" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K18" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1375512336482001</v>
+        <v>0.1186494126228522</v>
       </c>
       <c r="M18" t="n">
-        <v>14.33309504283588</v>
+        <v>14.67279113495249</v>
       </c>
       <c r="N18" t="n">
-        <v>401.1812720473171</v>
+        <v>420.4384465003818</v>
       </c>
       <c r="O18" t="n">
-        <v>20.02951003013596</v>
+        <v>20.50459574096455</v>
       </c>
       <c r="P18" t="n">
-        <v>363.6144705197191</v>
+        <v>364.28982439778</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34822,28 +35029,28 @@
         <v>0.0423</v>
       </c>
       <c r="I19" t="n">
-        <v>1.165147228454202</v>
+        <v>1.118201987829849</v>
       </c>
       <c r="J19" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K19" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1517652009979306</v>
+        <v>0.1369287428971326</v>
       </c>
       <c r="M19" t="n">
-        <v>15.74366244619419</v>
+        <v>15.95280583948223</v>
       </c>
       <c r="N19" t="n">
-        <v>425.5091840012366</v>
+        <v>443.4962585601046</v>
       </c>
       <c r="O19" t="n">
-        <v>20.62787395737226</v>
+        <v>21.05935085799429</v>
       </c>
       <c r="P19" t="n">
-        <v>354.2468205875998</v>
+        <v>354.7132337720473</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34900,28 +35107,28 @@
         <v>0.0495</v>
       </c>
       <c r="I20" t="n">
-        <v>1.166545385114755</v>
+        <v>1.130705977051812</v>
       </c>
       <c r="J20" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K20" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1403974622062106</v>
+        <v>0.1330875385353033</v>
       </c>
       <c r="M20" t="n">
-        <v>16.94716719575022</v>
+        <v>17.04573164907062</v>
       </c>
       <c r="N20" t="n">
-        <v>480.3593583794942</v>
+        <v>483.258971978772</v>
       </c>
       <c r="O20" t="n">
-        <v>21.91710196124237</v>
+        <v>21.98315200281279</v>
       </c>
       <c r="P20" t="n">
-        <v>340.3870385583664</v>
+        <v>340.7402502250752</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34959,7 +35166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U466"/>
+  <dimension ref="A1:U469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76601,6 +76808,267 @@
         </is>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-42.11033373328954,171.3336317754762</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-42.10969048678101,171.3338723665831</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-42.10902815366438,171.33399285938506</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-42.108388638369256,171.3342570210616</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-42.1077304474956,171.33440367195445</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr"/>
+      <c r="N467" t="inlineStr"/>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
+      <c r="Q467" t="inlineStr"/>
+      <c r="R467" t="inlineStr"/>
+      <c r="S467" t="inlineStr"/>
+      <c r="T467" t="inlineStr"/>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:32+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-42.110373424380384,171.33388161310887</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-42.10973608637302,171.33415939626593</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-42.109078725675474,171.33431118671464</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-42.108415811246644,171.3344280614152</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-42.107761197340075,171.33459722690836</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-42.107136404242134,171.33495414355406</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-42.10648333617744,171.3351331237892</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-42.10579560627295,171.335093966818</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-42.10514089357327,171.33526427697885</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-42.104474875775736,171.33537440744382</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>-42.10380011898697,171.33543982711578</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>-42.103165462920735,171.33572597019673</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>-42.10249718095323,171.33581979844087</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>-42.101843637286045,171.33599797375032</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>-42.10116797725707,171.3360496752726</t>
+        </is>
+      </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>-42.10056173980989,171.3364985332458</t>
+        </is>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>-42.09997952841226,171.3370848709705</t>
+        </is>
+      </c>
+      <c r="S468" t="inlineStr">
+        <is>
+          <t>-42.09940038532854,171.33768880585998</t>
+        </is>
+      </c>
+      <c r="T468" t="inlineStr">
+        <is>
+          <t>-42.098671508987245,171.3374362305846</t>
+        </is>
+      </c>
+      <c r="U468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-42.110341962776566,171.3336835761039</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-42.10969914831571,171.33392688681502</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-42.1090556975134,171.3341662343772</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-42.10839565322828,171.33430117609947</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-42.1077522792922,171.33454109200937</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-42.107121537375306,171.33486056298634</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-42.10648363141005,171.33513498215308</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-42.105804731671064,171.3351514065315</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-42.105105476060416,171.33504346572903</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-42.10444697791171,171.33520870104994</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>-42.103775738182875,171.33530036007477</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>-42.10312410264076,171.33548937443115</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>-42.102446291150585,171.33552869314394</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>-42.101806231066604,171.3357839989669</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>-42.101183518095894,171.33613857334544</t>
+        </is>
+      </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>-42.100569502081676,171.3365429361314</t>
+        </is>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>-42.10001424609004,171.33728347275368</t>
+        </is>
+      </c>
+      <c r="S469" t="inlineStr"/>
+      <c r="T469" t="inlineStr">
+        <is>
+          <t>-42.09867973964438,171.33748331336284</t>
+        </is>
+      </c>
+      <c r="U469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0381/nzd0381.xlsx
+++ b/data/nzd0381/nzd0381.xlsx
@@ -33694,13 +33694,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0668</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0941</v>
+        <v>0.1107</v>
       </c>
       <c r="I2" t="n">
         <v>-1.373827136287061</v>
@@ -33772,13 +33772,13 @@
         <v>0.9444443446464742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0844</v>
+        <v>0.0736</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1173</v>
+        <v>0.1044</v>
       </c>
       <c r="I3" t="n">
         <v>-1.236442324375846</v>
@@ -33853,10 +33853,10 @@
         <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0611</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0887</v>
+        <v>0.0905</v>
       </c>
       <c r="I4" t="n">
         <v>-1.173012541064205</v>
@@ -33928,13 +33928,13 @@
         <v>0.8333330339399297</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0476</v>
+        <v>0.0917</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0669</v>
+        <v>0.1388</v>
       </c>
       <c r="I5" t="n">
         <v>-1.089369244746431</v>
@@ -34006,13 +34006,13 @@
         <v>0.7777773785869112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0636</v>
+        <v>0.0765</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0853</v>
+        <v>0.0954</v>
       </c>
       <c r="I6" t="n">
         <v>-0.9273048237551871</v>
@@ -34087,10 +34087,10 @@
         <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0595</v>
+        <v>0.0615</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0772</v>
+        <v>0.0733</v>
       </c>
       <c r="I7" t="n">
         <v>-0.9430547844623881</v>
@@ -34162,13 +34162,13 @@
         <v>0.6666660678803668</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0636</v>
+        <v>0.0578</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0789</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>-0.7234215690072919</v>
@@ -34240,13 +34240,13 @@
         <v>0.6111104125269423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0636</v>
+        <v>0.0532</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0577</v>
       </c>
       <c r="I9" t="n">
         <v>-0.4478035357514648</v>
@@ -34321,10 +34321,10 @@
         <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0439</v>
+        <v>0.0443</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0525</v>
+        <v>0.0538</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2256752562767002</v>
@@ -34396,13 +34396,13 @@
         <v>0.5000008981813934</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0441</v>
+        <v>0.0389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0527</v>
+        <v>0.046</v>
       </c>
       <c r="I11" t="n">
         <v>-0.001660409412870481</v>
@@ -34477,10 +34477,10 @@
         <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0425</v>
+        <v>0.0408</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0488</v>
+        <v>0.0509</v>
       </c>
       <c r="I12" t="n">
         <v>0.2229442844362403</v>
@@ -34552,13 +34552,13 @@
         <v>0.3888895874741364</v>
       </c>
       <c r="F13" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0494</v>
+        <v>0.0323</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0604</v>
+        <v>0.0447</v>
       </c>
       <c r="I13" t="n">
         <v>0.4027972175847151</v>
@@ -34630,13 +34630,13 @@
         <v>0.3333339321202554</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0446</v>
+        <v>0.0287</v>
       </c>
       <c r="H14" t="n">
-        <v>0.053</v>
+        <v>0.0366</v>
       </c>
       <c r="I14" t="n">
         <v>0.6500550602851922</v>
@@ -34708,13 +34708,13 @@
         <v>0.2777782767668794</v>
       </c>
       <c r="F15" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0434</v>
+        <v>0.0289</v>
       </c>
       <c r="H15" t="n">
-        <v>0.052</v>
+        <v>0.0365</v>
       </c>
       <c r="I15" t="n">
         <v>0.5158574465278942</v>
@@ -34786,13 +34786,13 @@
         <v>0.2222226214139508</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>0.044</v>
+        <v>0.029</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0508</v>
+        <v>0.0359</v>
       </c>
       <c r="I16" t="n">
         <v>1.042870623702575</v>
@@ -34864,13 +34864,13 @@
         <v>0.1666669660605749</v>
       </c>
       <c r="F17" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0434</v>
+        <v>0.0274</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0489</v>
+        <v>0.0354</v>
       </c>
       <c r="I17" t="n">
         <v>1.221409580661714</v>
@@ -34942,13 +34942,13 @@
         <v>0.111111310707199</v>
       </c>
       <c r="F18" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0397</v>
+        <v>0.0284</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0474</v>
+        <v>0.0365</v>
       </c>
       <c r="I18" t="n">
         <v>1.004340546194333</v>
@@ -35020,13 +35020,13 @@
         <v>0.05555565535382311</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0349</v>
+        <v>0.025</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0423</v>
+        <v>0.0327</v>
       </c>
       <c r="I19" t="n">
         <v>1.118201987829849</v>
@@ -35098,13 +35098,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0349</v>
+        <v>0.0274</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0495</v>
+        <v>0.0331</v>
       </c>
       <c r="I20" t="n">
         <v>1.130705977051812</v>
